--- a/221024_反推期权价/记录.xlsx
+++ b/221024_反推期权价/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="1" r:id="rId1"/>
@@ -12,24 +12,25 @@
     <sheet name="2 records" sheetId="2" r:id="rId3"/>
     <sheet name="my_recoreds" sheetId="16" r:id="rId4"/>
     <sheet name="3 T" sheetId="4" r:id="rId5"/>
-    <sheet name="4 S" sheetId="5" r:id="rId6"/>
-    <sheet name="5 K" sheetId="6" r:id="rId7"/>
-    <sheet name="6 vol" sheetId="7" r:id="rId8"/>
-    <sheet name="7 other" sheetId="8" r:id="rId9"/>
-    <sheet name="8 take profit" sheetId="9" r:id="rId10"/>
-    <sheet name="9 stop loss" sheetId="10" r:id="rId11"/>
-    <sheet name="10 plan" sheetId="11" r:id="rId12"/>
-    <sheet name="11 watchlist" sheetId="14" r:id="rId13"/>
-    <sheet name="12 entry" sheetId="12" r:id="rId14"/>
-    <sheet name="13 exit" sheetId="13" r:id="rId15"/>
-    <sheet name="14 diary" sheetId="15" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId6"/>
+    <sheet name="4 S" sheetId="5" r:id="rId7"/>
+    <sheet name="5 K" sheetId="6" r:id="rId8"/>
+    <sheet name="6 vol" sheetId="7" r:id="rId9"/>
+    <sheet name="7 other" sheetId="8" r:id="rId10"/>
+    <sheet name="8 take profit" sheetId="9" r:id="rId11"/>
+    <sheet name="9 stop loss" sheetId="10" r:id="rId12"/>
+    <sheet name="10 plan" sheetId="11" r:id="rId13"/>
+    <sheet name="11 watchlist" sheetId="14" r:id="rId14"/>
+    <sheet name="12 entry" sheetId="12" r:id="rId15"/>
+    <sheet name="13 exit" sheetId="13" r:id="rId16"/>
+    <sheet name="14 diary" sheetId="15" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="235">
   <si>
     <t>7$qRL*.H5A6qTtf</t>
   </si>
@@ -570,6 +571,47 @@
   </si>
   <si>
     <t>VIX Adj Close</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>收益区间</t>
+  </si>
+  <si>
+    <t>win/loss
+(vs 什么也不做)</t>
+  </si>
+  <si>
+    <t>pnl
+(实际每手收益)</t>
+  </si>
+  <si>
+    <t>win/loss (vs BH)
+(和仅持股相比输赢)</t>
+  </si>
+  <si>
+    <t>BH PnL
+(仅持股每手收益)</t>
+  </si>
+  <si>
+    <t>Pnl (vs BH)
+(实际和仅持股相比的收益)</t>
+  </si>
+  <si>
+    <t>K
+(行权价)</t>
+  </si>
+  <si>
+    <t>premium
+(期权价)</t>
+  </si>
+  <si>
+    <t>T
+(期权期限)</t>
   </si>
   <si>
     <t>uptrend &amp; stable: boring in the short term,</t>
@@ -723,11 +765,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -750,18 +794,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="21"/>
-      <color rgb="FF0F1111"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -908,7 +952,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -929,6 +973,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -936,12 +998,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,10 +1315,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,14 +1327,14 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1288,10 +1344,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1312,28 +1368,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1342,22 +1398,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1366,19 +1416,19 @@
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1387,17 +1437,23 @@
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1411,77 +1467,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1890,6 +1985,34 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L156" sqref="L156"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:3">
+      <c r="A1" s="1">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1903,7 +2026,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
         <v>91</v>
@@ -1911,17 +2034,17 @@
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="4" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="4" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="4" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +2053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L7"/>
@@ -1946,7 +2069,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
         <v>92</v>
@@ -1954,42 +2077,17 @@
     </row>
     <row r="5" spans="12:12">
       <c r="L5" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="4" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L156" sqref="L156"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="1">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2009,12 +2107,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" ht="24.75" spans="1:2">
+    <row r="1" ht="15" spans="1:2">
       <c r="A1" s="1">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>219</v>
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2034,12 +2132,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:2">
+    <row r="1" ht="24.75" spans="1:2">
       <c r="A1" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2049,6 +2147,31 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L156" sqref="L156"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:2">
+      <c r="A1" s="1">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C8"/>
@@ -2064,12 +2187,12 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="4" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="3:3">
@@ -2081,7 +2204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B1"/>
@@ -2097,7 +2220,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2276,10 +2399,10 @@
       <c r="J12">
         <v>117</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="36">
         <v>0.1609</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="55">
         <v>40228</v>
       </c>
       <c r="M12">
@@ -2504,7 +2627,7 @@
       <c r="K24">
         <v>113</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="36">
         <v>0.1833</v>
       </c>
       <c r="M24" s="6">
@@ -5315,7 +5438,7 @@
       <c r="H119" t="s">
         <v>62</v>
       </c>
-      <c r="I119" s="41">
+      <c r="I119" s="54">
         <f>2/8</f>
         <v>0.25</v>
       </c>
@@ -5332,7 +5455,7 @@
       <c r="H120" t="s">
         <v>61</v>
       </c>
-      <c r="I120" s="41">
+      <c r="I120" s="54">
         <f>6/8</f>
         <v>0.75</v>
       </c>
@@ -5356,7 +5479,7 @@
       <c r="H121" t="s">
         <v>62</v>
       </c>
-      <c r="I121" s="41">
+      <c r="I121" s="54">
         <f>6/8</f>
         <v>0.75</v>
       </c>
@@ -5373,7 +5496,7 @@
       <c r="H122" t="s">
         <v>61</v>
       </c>
-      <c r="I122" s="41">
+      <c r="I122" s="54">
         <f>2/8</f>
         <v>0.25</v>
       </c>
@@ -5713,7 +5836,7 @@
       <c r="G143" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H143" s="43" t="s">
+      <c r="H143" s="56" t="s">
         <v>18</v>
       </c>
       <c r="I143" s="11" t="s">
@@ -5734,7 +5857,7 @@
       <c r="N143" t="s">
         <v>26</v>
       </c>
-      <c r="O143" s="43" t="s">
+      <c r="O143" s="56" t="s">
         <v>2</v>
       </c>
       <c r="P143" t="s">
@@ -5772,36 +5895,36 @@
       <c r="E144" s="7">
         <v>0</v>
       </c>
-      <c r="F144" s="17">
+      <c r="F144" s="31">
         <f t="shared" ref="F144:F148" si="13">C144+D144+E144</f>
         <v>10116</v>
       </c>
-      <c r="G144" s="17"/>
-      <c r="H144" s="44">
+      <c r="G144" s="31"/>
+      <c r="H144" s="57">
         <f>I139</f>
         <v>25.44</v>
       </c>
-      <c r="I144" s="17">
+      <c r="I144" s="31">
         <f>K139</f>
         <v>50</v>
       </c>
-      <c r="J144" s="17">
+      <c r="J144" s="31">
         <v>72.06</v>
       </c>
-      <c r="K144" s="17">
+      <c r="K144" s="31">
         <v>-3.47</v>
       </c>
-      <c r="L144" s="17">
+      <c r="L144" s="31">
         <v>3.21</v>
       </c>
-      <c r="M144" s="17">
+      <c r="M144" s="31">
         <v>-12.84</v>
       </c>
       <c r="N144" s="7">
         <f>100-75.13</f>
         <v>24.87</v>
       </c>
-      <c r="O144" s="44">
+      <c r="O144" s="57">
         <f>G139</f>
         <v>102.76</v>
       </c>
@@ -5825,37 +5948,37 @@
       <c r="E145" s="7">
         <v>0</v>
       </c>
-      <c r="F145" s="17">
+      <c r="F145" s="31">
         <f t="shared" si="13"/>
         <v>10108</v>
       </c>
-      <c r="G145" s="17">
+      <c r="G145" s="31">
         <f t="shared" ref="G145:G148" si="14">F145-F$82</f>
         <v>10268</v>
       </c>
-      <c r="H145" s="44">
+      <c r="H145" s="57">
         <v>23.3</v>
       </c>
-      <c r="I145" s="17">
+      <c r="I145" s="31">
         <v>49</v>
       </c>
-      <c r="J145" s="17">
+      <c r="J145" s="31">
         <v>77.05</v>
       </c>
-      <c r="K145" s="17">
+      <c r="K145" s="31">
         <v>-3.47</v>
       </c>
-      <c r="L145" s="17">
+      <c r="L145" s="31">
         <v>2.57</v>
       </c>
-      <c r="M145" s="17">
+      <c r="M145" s="31">
         <v>-11.4</v>
       </c>
       <c r="N145" s="7">
         <f>110-79.53</f>
         <v>30.47</v>
       </c>
-      <c r="O145" s="44">
+      <c r="O145" s="57">
         <v>102.2</v>
       </c>
       <c r="P145" s="7">
@@ -5896,37 +6019,37 @@
       <c r="E146" s="7">
         <v>0</v>
       </c>
-      <c r="F146" s="17">
+      <c r="F146" s="31">
         <f t="shared" si="13"/>
         <v>10169.5</v>
       </c>
-      <c r="G146" s="17">
+      <c r="G146" s="31">
         <f t="shared" si="14"/>
         <v>10329.5</v>
       </c>
-      <c r="H146" s="44">
+      <c r="H146" s="57">
         <v>22.81</v>
       </c>
-      <c r="I146" s="17">
+      <c r="I146" s="31">
         <v>45</v>
       </c>
-      <c r="J146" s="17">
+      <c r="J146" s="31">
         <v>75.17</v>
       </c>
-      <c r="K146" s="17">
+      <c r="K146" s="31">
         <v>-3.83</v>
       </c>
-      <c r="L146" s="17">
+      <c r="L146" s="31">
         <v>2.89</v>
       </c>
-      <c r="M146" s="17">
+      <c r="M146" s="31">
         <v>-11.48</v>
       </c>
       <c r="N146" s="7">
         <f>100-77.64</f>
         <v>22.36</v>
       </c>
-      <c r="O146" s="44">
+      <c r="O146" s="57">
         <v>102.87</v>
       </c>
       <c r="P146" s="7">
@@ -5967,37 +6090,37 @@
       <c r="E147" s="7">
         <v>0</v>
       </c>
-      <c r="F147" s="17">
+      <c r="F147" s="31">
         <f t="shared" si="13"/>
         <v>10389.25</v>
       </c>
-      <c r="G147" s="17">
+      <c r="G147" s="31">
         <f t="shared" si="14"/>
         <v>10549.25</v>
       </c>
-      <c r="H147" s="44">
+      <c r="H147" s="57">
         <v>23.22</v>
       </c>
-      <c r="I147" s="17">
+      <c r="I147" s="31">
         <v>44</v>
       </c>
-      <c r="J147" s="17">
+      <c r="J147" s="31">
         <v>61.48</v>
       </c>
-      <c r="K147" s="17">
+      <c r="K147" s="31">
         <v>-4.45</v>
       </c>
-      <c r="L147" s="17">
+      <c r="L147" s="31">
         <v>3.72</v>
       </c>
-      <c r="M147" s="17">
+      <c r="M147" s="31">
         <v>-14.14</v>
       </c>
       <c r="N147" s="7">
         <f>100-64.54</f>
         <v>35.46</v>
       </c>
-      <c r="O147" s="44">
+      <c r="O147" s="57">
         <v>106.1</v>
       </c>
       <c r="P147" s="7">
@@ -6038,11 +6161,11 @@
       <c r="E148" s="7">
         <v>0</v>
       </c>
-      <c r="F148" s="17">
+      <c r="F148" s="31">
         <f t="shared" si="13"/>
         <v>10753</v>
       </c>
-      <c r="G148" s="17">
+      <c r="G148" s="31">
         <f t="shared" si="14"/>
         <v>10913</v>
       </c>
@@ -6127,11 +6250,11 @@
       <c r="E157" s="7">
         <v>-1</v>
       </c>
-      <c r="F157" s="20">
+      <c r="F157" s="34">
         <f>D157*E157*100</f>
         <v>-109.5</v>
       </c>
-      <c r="G157" s="20">
+      <c r="G157" s="34">
         <f>D158</f>
         <v>105.31</v>
       </c>
@@ -6144,7 +6267,7 @@
       <c r="J157" s="6">
         <v>40466</v>
       </c>
-      <c r="K157" s="20">
+      <c r="K157" s="34">
         <f>J157-C157</f>
         <v>44</v>
       </c>
@@ -6159,7 +6282,7 @@
       <c r="B158" t="s">
         <v>34</v>
       </c>
-      <c r="C158" s="21">
+      <c r="C158" s="35">
         <v>40422</v>
       </c>
       <c r="D158" s="7">
@@ -6168,7 +6291,7 @@
       <c r="E158" s="7">
         <v>100</v>
       </c>
-      <c r="F158" s="20">
+      <c r="F158" s="34">
         <f>D158*E158</f>
         <v>10531</v>
       </c>
@@ -6180,30 +6303,30 @@
       <c r="B159" t="s">
         <v>52</v>
       </c>
-      <c r="C159" s="21">
+      <c r="C159" s="35">
         <v>40422</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
-      <c r="F159" s="20">
+      <c r="F159" s="34">
         <f>F158+F157</f>
         <v>10421.5</v>
       </c>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
       <c r="I159" s="7"/>
-      <c r="N159" s="20">
+      <c r="N159" s="34">
         <f>H157-G157+D157</f>
         <v>6.785</v>
       </c>
       <c r="O159" s="7">
         <v>0</v>
       </c>
-      <c r="P159" s="20">
+      <c r="P159" s="34">
         <f>G157-D157</f>
         <v>104.215</v>
       </c>
-      <c r="Q159" s="20">
+      <c r="Q159" s="34">
         <f>H157+D157</f>
         <v>112.095</v>
       </c>
@@ -6274,11 +6397,11 @@
       <c r="E163" s="7">
         <v>-1</v>
       </c>
-      <c r="F163" s="20">
+      <c r="F163" s="34">
         <f>D163*E163*100</f>
         <v>-276.5</v>
       </c>
-      <c r="G163" s="20">
+      <c r="G163" s="34">
         <f>D164</f>
         <v>114.61</v>
       </c>
@@ -6291,7 +6414,7 @@
       <c r="J163" s="6">
         <v>40501</v>
       </c>
-      <c r="K163" s="20">
+      <c r="K163" s="34">
         <f>J163-C163</f>
         <v>49</v>
       </c>
@@ -6306,7 +6429,7 @@
       <c r="B164" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="21">
+      <c r="C164" s="35">
         <f>C163</f>
         <v>40452</v>
       </c>
@@ -6316,7 +6439,7 @@
       <c r="E164" s="7">
         <v>100</v>
       </c>
-      <c r="F164" s="20">
+      <c r="F164" s="34">
         <f>D164*E164</f>
         <v>11461</v>
       </c>
@@ -6328,31 +6451,31 @@
       <c r="B165" t="s">
         <v>52</v>
       </c>
-      <c r="C165" s="21">
+      <c r="C165" s="35">
         <f>C163</f>
         <v>40452</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
-      <c r="F165" s="20">
+      <c r="F165" s="34">
         <f>F164+F163</f>
         <v>11184.5</v>
       </c>
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
       <c r="I165" s="7"/>
-      <c r="N165" s="20">
+      <c r="N165" s="34">
         <f>H163-G163+D163</f>
         <v>4.155</v>
       </c>
       <c r="O165" s="7">
         <v>0</v>
       </c>
-      <c r="P165" s="20">
+      <c r="P165" s="34">
         <f>G163-D163</f>
         <v>111.845</v>
       </c>
-      <c r="Q165" s="20">
+      <c r="Q165" s="34">
         <f>H163+D163</f>
         <v>118.765</v>
       </c>
@@ -6423,11 +6546,11 @@
       <c r="E169" s="7">
         <v>-1</v>
       </c>
-      <c r="F169" s="20">
+      <c r="F169" s="34">
         <f>D169*E169*100</f>
         <v>-166.5</v>
       </c>
-      <c r="G169" s="20">
+      <c r="G169" s="34">
         <f>D170</f>
         <v>118.53</v>
       </c>
@@ -6440,7 +6563,7 @@
       <c r="J169" s="6">
         <v>40529</v>
       </c>
-      <c r="K169" s="20">
+      <c r="K169" s="34">
         <f>J169-C169</f>
         <v>46</v>
       </c>
@@ -6455,17 +6578,17 @@
       <c r="B170" t="s">
         <v>34</v>
       </c>
-      <c r="C170" s="21">
+      <c r="C170" s="35">
         <f>C169</f>
         <v>40483</v>
       </c>
-      <c r="D170" s="45">
+      <c r="D170" s="58">
         <v>118.53</v>
       </c>
       <c r="E170" s="7">
         <v>100</v>
       </c>
-      <c r="F170" s="20">
+      <c r="F170" s="34">
         <f>D170*E170</f>
         <v>11853</v>
       </c>
@@ -6477,31 +6600,31 @@
       <c r="B171" t="s">
         <v>52</v>
       </c>
-      <c r="C171" s="21">
+      <c r="C171" s="35">
         <f>C169</f>
         <v>40483</v>
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
-      <c r="F171" s="20">
+      <c r="F171" s="34">
         <f>F170+F169</f>
         <v>11686.5</v>
       </c>
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
-      <c r="N171" s="20">
+      <c r="N171" s="34">
         <f>H169-G169+D169</f>
         <v>5.135</v>
       </c>
       <c r="O171" s="7">
         <v>0</v>
       </c>
-      <c r="P171" s="20">
+      <c r="P171" s="34">
         <f>G169-D169</f>
         <v>116.865</v>
       </c>
-      <c r="Q171" s="20">
+      <c r="Q171" s="34">
         <f>H169+D169</f>
         <v>123.665</v>
       </c>
@@ -6566,17 +6689,17 @@
       <c r="C175" s="6">
         <v>40513</v>
       </c>
-      <c r="D175" s="45">
+      <c r="D175" s="58">
         <v>1.295</v>
       </c>
       <c r="E175" s="7">
         <v>-1</v>
       </c>
-      <c r="F175" s="20">
+      <c r="F175" s="34">
         <f>D175*E175*100</f>
         <v>-129.5</v>
       </c>
-      <c r="G175" s="20">
+      <c r="G175" s="34">
         <f>D176</f>
         <v>121.01</v>
       </c>
@@ -6589,7 +6712,7 @@
       <c r="J175" s="6">
         <v>40564</v>
       </c>
-      <c r="K175" s="20">
+      <c r="K175" s="34">
         <f>J175-C175</f>
         <v>51</v>
       </c>
@@ -6604,17 +6727,17 @@
       <c r="B176" t="s">
         <v>34</v>
       </c>
-      <c r="C176" s="21">
+      <c r="C176" s="35">
         <f>C175</f>
         <v>40513</v>
       </c>
-      <c r="D176" s="45">
+      <c r="D176" s="58">
         <v>121.01</v>
       </c>
       <c r="E176" s="7">
         <v>100</v>
       </c>
-      <c r="F176" s="20">
+      <c r="F176" s="34">
         <f>D176*E176</f>
         <v>12101</v>
       </c>
@@ -6626,31 +6749,31 @@
       <c r="B177" t="s">
         <v>52</v>
       </c>
-      <c r="C177" s="21">
+      <c r="C177" s="35">
         <f>C175</f>
         <v>40513</v>
       </c>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
-      <c r="F177" s="20">
+      <c r="F177" s="34">
         <f>F176+F175</f>
         <v>11971.5</v>
       </c>
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
-      <c r="N177" s="20">
+      <c r="N177" s="34">
         <f>H175-G175+D175</f>
         <v>5.28499999999999</v>
       </c>
       <c r="O177" s="7">
         <v>0</v>
       </c>
-      <c r="P177" s="20">
+      <c r="P177" s="34">
         <f>G175-D175</f>
         <v>119.715</v>
       </c>
-      <c r="Q177" s="20">
+      <c r="Q177" s="34">
         <f>H175+D175</f>
         <v>126.295</v>
       </c>
@@ -6715,17 +6838,17 @@
       <c r="C181" s="6">
         <v>40546</v>
       </c>
-      <c r="D181" s="45">
+      <c r="D181" s="58">
         <v>1.445</v>
       </c>
       <c r="E181" s="7">
         <v>-1</v>
       </c>
-      <c r="F181" s="20">
+      <c r="F181" s="34">
         <f>D181*E181*100</f>
         <v>-144.5</v>
       </c>
-      <c r="G181" s="20">
+      <c r="G181" s="34">
         <f>D182</f>
         <v>127.05</v>
       </c>
@@ -6738,7 +6861,7 @@
       <c r="J181" s="6">
         <v>40592</v>
       </c>
-      <c r="K181" s="20">
+      <c r="K181" s="34">
         <f>J181-C181</f>
         <v>46</v>
       </c>
@@ -6753,17 +6876,17 @@
       <c r="B182" t="s">
         <v>34</v>
       </c>
-      <c r="C182" s="21">
+      <c r="C182" s="35">
         <f>C181</f>
         <v>40546</v>
       </c>
-      <c r="D182" s="45">
+      <c r="D182" s="58">
         <v>127.05</v>
       </c>
       <c r="E182" s="7">
         <v>100</v>
       </c>
-      <c r="F182" s="20">
+      <c r="F182" s="34">
         <f>D182*E182</f>
         <v>12705</v>
       </c>
@@ -6775,31 +6898,31 @@
       <c r="B183" t="s">
         <v>52</v>
       </c>
-      <c r="C183" s="21">
+      <c r="C183" s="35">
         <f>C181</f>
         <v>40546</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
-      <c r="F183" s="20">
+      <c r="F183" s="34">
         <f>F182+F181</f>
         <v>12560.5</v>
       </c>
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
-      <c r="N183" s="20">
+      <c r="N183" s="34">
         <f>H181-G181+D181</f>
         <v>4.395</v>
       </c>
       <c r="O183" s="7">
         <v>0</v>
       </c>
-      <c r="P183" s="20">
+      <c r="P183" s="34">
         <f>G181-D181</f>
         <v>125.605</v>
       </c>
-      <c r="Q183" s="20">
+      <c r="Q183" s="34">
         <f>H181+D181</f>
         <v>131.445</v>
       </c>
@@ -6864,17 +6987,17 @@
       <c r="C187" s="6">
         <v>40575</v>
       </c>
-      <c r="D187" s="45">
+      <c r="D187" s="58">
         <v>1.11</v>
       </c>
       <c r="E187" s="7">
         <v>-1</v>
       </c>
-      <c r="F187" s="20">
+      <c r="F187" s="34">
         <f>D187*E187*100</f>
         <v>-111</v>
       </c>
-      <c r="G187" s="20">
+      <c r="G187" s="34">
         <f>D188</f>
         <v>130.74</v>
       </c>
@@ -6887,7 +7010,7 @@
       <c r="J187" s="6">
         <v>40620</v>
       </c>
-      <c r="K187" s="20">
+      <c r="K187" s="34">
         <f>J187-C187</f>
         <v>45</v>
       </c>
@@ -6902,17 +7025,17 @@
       <c r="B188" t="s">
         <v>34</v>
       </c>
-      <c r="C188" s="21">
+      <c r="C188" s="35">
         <f>C187</f>
         <v>40575</v>
       </c>
-      <c r="D188" s="45">
+      <c r="D188" s="58">
         <v>130.74</v>
       </c>
       <c r="E188" s="7">
         <v>100</v>
       </c>
-      <c r="F188" s="20">
+      <c r="F188" s="34">
         <f>D188*E188</f>
         <v>13074</v>
       </c>
@@ -6924,31 +7047,31 @@
       <c r="B189" t="s">
         <v>52</v>
       </c>
-      <c r="C189" s="21">
+      <c r="C189" s="35">
         <f>C187</f>
         <v>40575</v>
       </c>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
-      <c r="F189" s="20">
+      <c r="F189" s="34">
         <f>F188+F187</f>
         <v>12963</v>
       </c>
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
-      <c r="N189" s="20">
+      <c r="N189" s="34">
         <f>H187-G187+D187</f>
         <v>4.36999999999999</v>
       </c>
       <c r="O189" s="7">
         <v>0</v>
       </c>
-      <c r="P189" s="20">
+      <c r="P189" s="34">
         <f>G187-D187</f>
         <v>129.63</v>
       </c>
-      <c r="Q189" s="20">
+      <c r="Q189" s="34">
         <f>H187+D187</f>
         <v>135.11</v>
       </c>
@@ -7013,17 +7136,17 @@
       <c r="C193" s="6">
         <v>40603</v>
       </c>
-      <c r="D193" s="45">
+      <c r="D193" s="58">
         <v>1.4</v>
       </c>
       <c r="E193" s="7">
         <v>-1</v>
       </c>
-      <c r="F193" s="20">
+      <c r="F193" s="34">
         <f>D193*E193*100</f>
         <v>-140</v>
       </c>
-      <c r="G193" s="20">
+      <c r="G193" s="34">
         <f>D194</f>
         <v>130.93</v>
       </c>
@@ -7036,7 +7159,7 @@
       <c r="J193" s="6">
         <v>40648</v>
       </c>
-      <c r="K193" s="20">
+      <c r="K193" s="34">
         <f>J193-C193</f>
         <v>45</v>
       </c>
@@ -7051,17 +7174,17 @@
       <c r="B194" t="s">
         <v>34</v>
       </c>
-      <c r="C194" s="21">
+      <c r="C194" s="35">
         <f>C193</f>
         <v>40603</v>
       </c>
-      <c r="D194" s="45">
+      <c r="D194" s="58">
         <v>130.93</v>
       </c>
       <c r="E194" s="7">
         <v>100</v>
       </c>
-      <c r="F194" s="20">
+      <c r="F194" s="34">
         <f>D194*E194</f>
         <v>13093</v>
       </c>
@@ -7073,31 +7196,31 @@
       <c r="B195" t="s">
         <v>52</v>
       </c>
-      <c r="C195" s="21">
+      <c r="C195" s="35">
         <f>C193</f>
         <v>40603</v>
       </c>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
-      <c r="F195" s="20">
+      <c r="F195" s="34">
         <f>F194+F193</f>
         <v>12953</v>
       </c>
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
       <c r="I195" s="7"/>
-      <c r="N195" s="20">
+      <c r="N195" s="34">
         <f>H193-G193+D193</f>
         <v>4.46999999999999</v>
       </c>
       <c r="O195" s="7">
         <v>0</v>
       </c>
-      <c r="P195" s="20">
+      <c r="P195" s="34">
         <f>G193-D193</f>
         <v>129.53</v>
       </c>
-      <c r="Q195" s="20">
+      <c r="Q195" s="34">
         <f>H193+D193</f>
         <v>135.4</v>
       </c>
@@ -7162,17 +7285,17 @@
       <c r="C199" s="6">
         <v>40634</v>
       </c>
-      <c r="D199" s="45">
+      <c r="D199" s="58">
         <v>1.55</v>
       </c>
       <c r="E199" s="7">
         <v>-1</v>
       </c>
-      <c r="F199" s="20">
+      <c r="F199" s="34">
         <f>D199*E199*100</f>
         <v>-155</v>
       </c>
-      <c r="G199" s="20">
+      <c r="G199" s="34">
         <f>D200</f>
         <v>133.15</v>
       </c>
@@ -7185,7 +7308,7 @@
       <c r="J199" s="6">
         <v>40683</v>
       </c>
-      <c r="K199" s="20">
+      <c r="K199" s="34">
         <f>J199-C199</f>
         <v>49</v>
       </c>
@@ -7200,17 +7323,17 @@
       <c r="B200" t="s">
         <v>34</v>
       </c>
-      <c r="C200" s="21">
+      <c r="C200" s="35">
         <f>C199</f>
         <v>40634</v>
       </c>
-      <c r="D200" s="45">
+      <c r="D200" s="58">
         <v>133.15</v>
       </c>
       <c r="E200" s="7">
         <v>100</v>
       </c>
-      <c r="F200" s="20">
+      <c r="F200" s="34">
         <f>D200*E200</f>
         <v>13315</v>
       </c>
@@ -7222,31 +7345,31 @@
       <c r="B201" t="s">
         <v>52</v>
       </c>
-      <c r="C201" s="21">
+      <c r="C201" s="35">
         <f>C199</f>
         <v>40634</v>
       </c>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
-      <c r="F201" s="20">
+      <c r="F201" s="34">
         <f>F200+F199</f>
         <v>13160</v>
       </c>
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
       <c r="I201" s="7"/>
-      <c r="N201" s="20">
+      <c r="N201" s="34">
         <f>H199-G199+D199</f>
         <v>4.39999999999999</v>
       </c>
       <c r="O201" s="7">
         <v>0</v>
       </c>
-      <c r="P201" s="20">
+      <c r="P201" s="34">
         <f>G199-D199</f>
         <v>131.6</v>
       </c>
-      <c r="Q201" s="20">
+      <c r="Q201" s="34">
         <f>H199+D199</f>
         <v>137.55</v>
       </c>
@@ -7311,17 +7434,17 @@
       <c r="C205" s="6">
         <v>40665</v>
       </c>
-      <c r="D205" s="45">
+      <c r="D205" s="58">
         <v>0.705</v>
       </c>
       <c r="E205" s="7">
         <v>-1</v>
       </c>
-      <c r="F205" s="20">
+      <c r="F205" s="34">
         <f>D205*E205*100</f>
         <v>-70.5</v>
       </c>
-      <c r="G205" s="20">
+      <c r="G205" s="34">
         <f>D206</f>
         <v>136.22</v>
       </c>
@@ -7334,7 +7457,7 @@
       <c r="J205" s="6">
         <v>40711</v>
       </c>
-      <c r="K205" s="20">
+      <c r="K205" s="34">
         <f>J205-C205</f>
         <v>46</v>
       </c>
@@ -7349,17 +7472,17 @@
       <c r="B206" t="s">
         <v>34</v>
       </c>
-      <c r="C206" s="21">
+      <c r="C206" s="35">
         <f>C205</f>
         <v>40665</v>
       </c>
-      <c r="D206" s="45">
+      <c r="D206" s="58">
         <v>136.22</v>
       </c>
       <c r="E206" s="7">
         <v>100</v>
       </c>
-      <c r="F206" s="20">
+      <c r="F206" s="34">
         <f>D206*E206</f>
         <v>13622</v>
       </c>
@@ -7371,31 +7494,31 @@
       <c r="B207" t="s">
         <v>52</v>
       </c>
-      <c r="C207" s="21">
+      <c r="C207" s="35">
         <f>C205</f>
         <v>40665</v>
       </c>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
-      <c r="F207" s="20">
+      <c r="F207" s="34">
         <f>F206+F205</f>
         <v>13551.5</v>
       </c>
       <c r="G207" s="7"/>
       <c r="H207" s="7"/>
       <c r="I207" s="7"/>
-      <c r="N207" s="20">
+      <c r="N207" s="34">
         <f>H205-G205+D205</f>
         <v>5.485</v>
       </c>
       <c r="O207" s="7">
         <v>0</v>
       </c>
-      <c r="P207" s="20">
+      <c r="P207" s="34">
         <f>G205-D205</f>
         <v>135.515</v>
       </c>
-      <c r="Q207" s="20">
+      <c r="Q207" s="34">
         <f>H205+D205</f>
         <v>141.705</v>
       </c>
@@ -7460,17 +7583,17 @@
       <c r="C211" s="6">
         <v>40695</v>
       </c>
-      <c r="D211" s="45">
+      <c r="D211" s="58">
         <v>0.84</v>
       </c>
       <c r="E211" s="7">
         <v>-1</v>
       </c>
-      <c r="F211" s="20">
+      <c r="F211" s="34">
         <f>D211*E211*100</f>
         <v>-84</v>
       </c>
-      <c r="G211" s="20">
+      <c r="G211" s="34">
         <f>D212</f>
         <v>131.87</v>
       </c>
@@ -7483,7 +7606,7 @@
       <c r="J211" s="6">
         <v>40739</v>
       </c>
-      <c r="K211" s="20">
+      <c r="K211" s="34">
         <f>J211-C211</f>
         <v>44</v>
       </c>
@@ -7498,17 +7621,17 @@
       <c r="B212" t="s">
         <v>34</v>
       </c>
-      <c r="C212" s="21">
+      <c r="C212" s="35">
         <f>C211</f>
         <v>40695</v>
       </c>
-      <c r="D212" s="45">
+      <c r="D212" s="58">
         <v>131.87</v>
       </c>
       <c r="E212" s="7">
         <v>100</v>
       </c>
-      <c r="F212" s="20">
+      <c r="F212" s="34">
         <f>D212*E212</f>
         <v>13187</v>
       </c>
@@ -7520,31 +7643,31 @@
       <c r="B213" t="s">
         <v>52</v>
       </c>
-      <c r="C213" s="21">
+      <c r="C213" s="35">
         <f>C211</f>
         <v>40695</v>
       </c>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
-      <c r="F213" s="20">
+      <c r="F213" s="34">
         <f>F212+F211</f>
         <v>13103</v>
       </c>
       <c r="G213" s="7"/>
       <c r="H213" s="7"/>
       <c r="I213" s="7"/>
-      <c r="N213" s="20">
+      <c r="N213" s="34">
         <f>H211-G211+D211</f>
         <v>4.97</v>
       </c>
       <c r="O213" s="7">
         <v>0</v>
       </c>
-      <c r="P213" s="20">
+      <c r="P213" s="34">
         <f>G211-D211</f>
         <v>131.03</v>
       </c>
-      <c r="Q213" s="20">
+      <c r="Q213" s="34">
         <f>H211+D211</f>
         <v>136.84</v>
       </c>
@@ -7609,17 +7732,17 @@
       <c r="C217" s="6">
         <v>40725</v>
       </c>
-      <c r="D217" s="45">
+      <c r="D217" s="58">
         <v>0.975</v>
       </c>
       <c r="E217" s="7">
         <v>-1</v>
       </c>
-      <c r="F217" s="20">
+      <c r="F217" s="34">
         <f>D217*E217*100</f>
         <v>-97.5</v>
       </c>
-      <c r="G217" s="20">
+      <c r="G217" s="34">
         <f>D218</f>
         <v>133.92</v>
       </c>
@@ -7632,7 +7755,7 @@
       <c r="J217" s="6">
         <v>40774</v>
       </c>
-      <c r="K217" s="20">
+      <c r="K217" s="34">
         <f>J217-C217</f>
         <v>49</v>
       </c>
@@ -7647,17 +7770,17 @@
       <c r="B218" t="s">
         <v>34</v>
       </c>
-      <c r="C218" s="21">
+      <c r="C218" s="35">
         <f>C217</f>
         <v>40725</v>
       </c>
-      <c r="D218" s="45">
+      <c r="D218" s="58">
         <v>133.92</v>
       </c>
       <c r="E218" s="7">
         <v>100</v>
       </c>
-      <c r="F218" s="20">
+      <c r="F218" s="34">
         <f>D218*E218</f>
         <v>13392</v>
       </c>
@@ -7669,31 +7792,31 @@
       <c r="B219" t="s">
         <v>52</v>
       </c>
-      <c r="C219" s="21">
+      <c r="C219" s="35">
         <f>C217</f>
         <v>40725</v>
       </c>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
-      <c r="F219" s="20">
+      <c r="F219" s="34">
         <f>F218+F217</f>
         <v>13294.5</v>
       </c>
       <c r="G219" s="7"/>
       <c r="H219" s="7"/>
       <c r="I219" s="7"/>
-      <c r="N219" s="20">
+      <c r="N219" s="34">
         <f>H217-G217+D217</f>
         <v>5.05500000000001</v>
       </c>
       <c r="O219" s="7">
         <v>0</v>
       </c>
-      <c r="P219" s="20">
+      <c r="P219" s="34">
         <f>G217-D217</f>
         <v>132.945</v>
       </c>
-      <c r="Q219" s="20">
+      <c r="Q219" s="34">
         <f>H217+D217</f>
         <v>138.975</v>
       </c>
@@ -7758,17 +7881,17 @@
       <c r="C223" s="6">
         <v>40756</v>
       </c>
-      <c r="D223" s="45">
+      <c r="D223" s="58">
         <v>1.435</v>
       </c>
       <c r="E223" s="7">
         <v>-1</v>
       </c>
-      <c r="F223" s="20">
+      <c r="F223" s="34">
         <f>D223*E223*100</f>
         <v>-143.5</v>
       </c>
-      <c r="G223" s="20">
+      <c r="G223" s="34">
         <f>D224</f>
         <v>128.78</v>
       </c>
@@ -7781,7 +7904,7 @@
       <c r="J223" s="6">
         <v>40802</v>
       </c>
-      <c r="K223" s="20">
+      <c r="K223" s="34">
         <f>J223-C223</f>
         <v>46</v>
       </c>
@@ -7796,17 +7919,17 @@
       <c r="B224" t="s">
         <v>34</v>
       </c>
-      <c r="C224" s="21">
+      <c r="C224" s="35">
         <f>C223</f>
         <v>40756</v>
       </c>
-      <c r="D224" s="45">
+      <c r="D224" s="58">
         <v>128.78</v>
       </c>
       <c r="E224" s="7">
         <v>100</v>
       </c>
-      <c r="F224" s="20">
+      <c r="F224" s="34">
         <f>D224*E224</f>
         <v>12878</v>
       </c>
@@ -7818,31 +7941,31 @@
       <c r="B225" t="s">
         <v>52</v>
       </c>
-      <c r="C225" s="21">
+      <c r="C225" s="35">
         <f>C223</f>
         <v>40756</v>
       </c>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
-      <c r="F225" s="20">
+      <c r="F225" s="34">
         <f>F224+F223</f>
         <v>12734.5</v>
       </c>
       <c r="G225" s="7"/>
       <c r="H225" s="7"/>
       <c r="I225" s="7"/>
-      <c r="N225" s="20">
+      <c r="N225" s="34">
         <f>H223-G223+D223</f>
         <v>5.655</v>
       </c>
       <c r="O225" s="7">
         <v>0</v>
       </c>
-      <c r="P225" s="20">
+      <c r="P225" s="34">
         <f>G223-D223</f>
         <v>127.345</v>
       </c>
-      <c r="Q225" s="20">
+      <c r="Q225" s="34">
         <f>H223+D223</f>
         <v>134.435</v>
       </c>
@@ -7907,17 +8030,17 @@
       <c r="C229" s="6">
         <v>40787</v>
       </c>
-      <c r="D229" s="45">
+      <c r="D229" s="58">
         <v>2395</v>
       </c>
       <c r="E229" s="7">
         <v>-1</v>
       </c>
-      <c r="F229" s="20">
+      <c r="F229" s="34">
         <f>D229*E229*100</f>
         <v>-239500</v>
       </c>
-      <c r="G229" s="20">
+      <c r="G229" s="34">
         <f>D230</f>
         <v>120.94</v>
       </c>
@@ -7930,7 +8053,7 @@
       <c r="J229" s="6">
         <v>40837</v>
       </c>
-      <c r="K229" s="20">
+      <c r="K229" s="34">
         <f>J229-C229</f>
         <v>50</v>
       </c>
@@ -7945,17 +8068,17 @@
       <c r="B230" t="s">
         <v>34</v>
       </c>
-      <c r="C230" s="21">
+      <c r="C230" s="35">
         <f>C229</f>
         <v>40787</v>
       </c>
-      <c r="D230" s="45">
+      <c r="D230" s="58">
         <v>120.94</v>
       </c>
       <c r="E230" s="7">
         <v>100</v>
       </c>
-      <c r="F230" s="20">
+      <c r="F230" s="34">
         <f>D230*E230</f>
         <v>12094</v>
       </c>
@@ -7967,31 +8090,31 @@
       <c r="B231" t="s">
         <v>52</v>
       </c>
-      <c r="C231" s="21">
+      <c r="C231" s="35">
         <f>C229</f>
         <v>40787</v>
       </c>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
-      <c r="F231" s="20">
+      <c r="F231" s="34">
         <f>F230+F229</f>
         <v>-227406</v>
       </c>
       <c r="G231" s="7"/>
       <c r="H231" s="7"/>
       <c r="I231" s="7"/>
-      <c r="N231" s="20">
+      <c r="N231" s="34">
         <f>H229-G229+D229</f>
         <v>2399.06</v>
       </c>
       <c r="O231" s="7">
         <v>0</v>
       </c>
-      <c r="P231" s="20">
+      <c r="P231" s="34">
         <f>G229-D229</f>
         <v>-2274.06</v>
       </c>
-      <c r="Q231" s="20">
+      <c r="Q231" s="34">
         <f>H229+D229</f>
         <v>2520</v>
       </c>
@@ -8056,17 +8179,17 @@
       <c r="C235" s="6">
         <v>40819</v>
       </c>
-      <c r="D235" s="45">
+      <c r="D235" s="58">
         <v>4.385</v>
       </c>
       <c r="E235" s="7">
         <v>-1</v>
       </c>
-      <c r="F235" s="20">
+      <c r="F235" s="34">
         <f>D235*E235*100</f>
         <v>-438.5</v>
       </c>
-      <c r="G235" s="20">
+      <c r="G235" s="34">
         <f>D236</f>
         <v>109.93</v>
       </c>
@@ -8079,7 +8202,7 @@
       <c r="J235" s="6">
         <v>40865</v>
       </c>
-      <c r="K235" s="20">
+      <c r="K235" s="34">
         <f>J235-C235</f>
         <v>46</v>
       </c>
@@ -8094,17 +8217,17 @@
       <c r="B236" t="s">
         <v>34</v>
       </c>
-      <c r="C236" s="21">
+      <c r="C236" s="35">
         <f>C235</f>
         <v>40819</v>
       </c>
-      <c r="D236" s="45">
+      <c r="D236" s="58">
         <v>109.93</v>
       </c>
       <c r="E236" s="7">
         <v>100</v>
       </c>
-      <c r="F236" s="20">
+      <c r="F236" s="34">
         <f>D236*E236</f>
         <v>10993</v>
       </c>
@@ -8116,31 +8239,31 @@
       <c r="B237" t="s">
         <v>52</v>
       </c>
-      <c r="C237" s="21">
+      <c r="C237" s="35">
         <f>C235</f>
         <v>40819</v>
       </c>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
-      <c r="F237" s="20">
+      <c r="F237" s="34">
         <f>F236+F235</f>
         <v>10554.5</v>
       </c>
       <c r="G237" s="7"/>
       <c r="H237" s="7"/>
       <c r="I237" s="7"/>
-      <c r="N237" s="20">
+      <c r="N237" s="34">
         <f>H235-G235+D235</f>
         <v>7.45499999999999</v>
       </c>
       <c r="O237" s="7">
         <v>0</v>
       </c>
-      <c r="P237" s="20">
+      <c r="P237" s="34">
         <f>G235-D235</f>
         <v>105.545</v>
       </c>
-      <c r="Q237" s="20">
+      <c r="Q237" s="34">
         <f>H235+D235</f>
         <v>117.385</v>
       </c>
@@ -8205,17 +8328,17 @@
       <c r="C241" s="6">
         <v>40848</v>
       </c>
-      <c r="D241" s="45">
+      <c r="D241" s="58">
         <v>2.69</v>
       </c>
       <c r="E241" s="7">
         <v>-1</v>
       </c>
-      <c r="F241" s="20">
+      <c r="F241" s="34">
         <f>D241*E241*100</f>
         <v>-269</v>
       </c>
-      <c r="G241" s="20">
+      <c r="G241" s="34">
         <f>D242</f>
         <v>122.002</v>
       </c>
@@ -8228,7 +8351,7 @@
       <c r="J241" s="6">
         <v>40893</v>
       </c>
-      <c r="K241" s="20">
+      <c r="K241" s="34">
         <f>J241-C241</f>
         <v>45</v>
       </c>
@@ -8243,17 +8366,17 @@
       <c r="B242" t="s">
         <v>34</v>
       </c>
-      <c r="C242" s="21">
+      <c r="C242" s="35">
         <f>C241</f>
         <v>40848</v>
       </c>
-      <c r="D242" s="45">
+      <c r="D242" s="58">
         <v>122.002</v>
       </c>
       <c r="E242" s="7">
         <v>100</v>
       </c>
-      <c r="F242" s="20">
+      <c r="F242" s="34">
         <f>D242*E242</f>
         <v>12200.2</v>
       </c>
@@ -8265,31 +8388,31 @@
       <c r="B243" t="s">
         <v>52</v>
       </c>
-      <c r="C243" s="21">
+      <c r="C243" s="35">
         <f>C241</f>
         <v>40848</v>
       </c>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
-      <c r="F243" s="20">
+      <c r="F243" s="34">
         <f>F242+F241</f>
         <v>11931.2</v>
       </c>
       <c r="G243" s="7"/>
       <c r="H243" s="7"/>
       <c r="I243" s="7"/>
-      <c r="N243" s="20">
+      <c r="N243" s="34">
         <f>H241-G241+D241</f>
         <v>7.688</v>
       </c>
       <c r="O243" s="7">
         <v>0</v>
       </c>
-      <c r="P243" s="20">
+      <c r="P243" s="34">
         <f>G241-D241</f>
         <v>119.312</v>
       </c>
-      <c r="Q243" s="20">
+      <c r="Q243" s="34">
         <f>H241+D241</f>
         <v>129.69</v>
       </c>
@@ -8354,17 +8477,17 @@
       <c r="C247" s="6">
         <v>40878</v>
       </c>
-      <c r="D247" s="45">
+      <c r="D247" s="58">
         <v>2.165</v>
       </c>
       <c r="E247" s="7">
         <v>-1</v>
       </c>
-      <c r="F247" s="20">
+      <c r="F247" s="34">
         <f>D247*E247*100</f>
         <v>-216.5</v>
       </c>
-      <c r="G247" s="20">
+      <c r="G247" s="34">
         <f>D248</f>
         <v>124.97</v>
       </c>
@@ -8377,7 +8500,7 @@
       <c r="J247" s="6">
         <v>40928</v>
       </c>
-      <c r="K247" s="20">
+      <c r="K247" s="34">
         <f>J247-C247</f>
         <v>50</v>
       </c>
@@ -8392,17 +8515,17 @@
       <c r="B248" t="s">
         <v>34</v>
       </c>
-      <c r="C248" s="21">
+      <c r="C248" s="35">
         <f>C247</f>
         <v>40878</v>
       </c>
-      <c r="D248" s="45">
+      <c r="D248" s="58">
         <v>124.97</v>
       </c>
       <c r="E248" s="7">
         <v>100</v>
       </c>
-      <c r="F248" s="20">
+      <c r="F248" s="34">
         <f>D248*E248</f>
         <v>12497</v>
       </c>
@@ -8414,31 +8537,31 @@
       <c r="B249" t="s">
         <v>52</v>
       </c>
-      <c r="C249" s="21">
+      <c r="C249" s="35">
         <f>C247</f>
         <v>40878</v>
       </c>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
-      <c r="F249" s="20">
+      <c r="F249" s="34">
         <f>F248+F247</f>
         <v>12280.5</v>
       </c>
       <c r="G249" s="7"/>
       <c r="H249" s="7"/>
       <c r="I249" s="7"/>
-      <c r="N249" s="20">
+      <c r="N249" s="34">
         <f>H247-G247+D247</f>
         <v>6.195</v>
       </c>
       <c r="O249" s="7">
         <v>0</v>
       </c>
-      <c r="P249" s="20">
+      <c r="P249" s="34">
         <f>G247-D247</f>
         <v>122.805</v>
       </c>
-      <c r="Q249" s="20">
+      <c r="Q249" s="34">
         <f>H247+D247</f>
         <v>131.165</v>
       </c>
@@ -8509,15 +8632,15 @@
       </c>
       <c r="J3">
         <f ca="1" t="array" ref="J3:J7">_xlfn.RANDARRAY(5,1,65,90,TRUE)</f>
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K3" t="str">
         <f ca="1">CHAR(J3)</f>
-        <v>R</v>
+        <v>K</v>
       </c>
       <c r="L3">
         <f ca="1" t="array" ref="L3:L7">_xlfn.RANDARRAY(5,1,0,9,TRUE)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M3" t="e">
         <f ca="1">_xlfn.CONCAT(_xlfn.ANCHORARRAY(L3))&amp;"-"&amp;_xlfn.CONCAT(K3:K7)</f>
@@ -8532,11 +8655,11 @@
         <v>75</v>
       </c>
       <c r="J4">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K4" t="str">
         <f ca="1">CHAR(J4)</f>
-        <v>M</v>
+        <v>C</v>
       </c>
       <c r="L4">
         <v>9</v>
@@ -8550,14 +8673,14 @@
         <v>76</v>
       </c>
       <c r="J5">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="K5" t="str">
         <f ca="1">CHAR(J5)</f>
-        <v>B</v>
+        <v>R</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="7:12">
@@ -8565,26 +8688,26 @@
         <v>77</v>
       </c>
       <c r="J6">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K6" t="str">
         <f ca="1">CHAR(J6)</f>
-        <v>R</v>
+        <v>U</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="10:12">
       <c r="J7">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K7" t="str">
         <f ca="1">CHAR(J7)</f>
-        <v>C</v>
+        <v>I</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -8708,10 +8831,10 @@
       <c r="G33">
         <v>0.82</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="33">
         <v>0</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="33">
         <v>0</v>
       </c>
       <c r="J33" s="7">
@@ -8761,10 +8884,10 @@
       <c r="G34">
         <v>127.05</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="33">
         <v>0</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="33">
         <v>0</v>
       </c>
       <c r="J34" s="7">
@@ -8821,10 +8944,10 @@
       </c>
     </row>
     <row r="36" spans="8:12">
-      <c r="H36" s="19">
+      <c r="H36" s="33">
         <v>0</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="33">
         <v>0</v>
       </c>
       <c r="J36" s="7">
@@ -8844,8 +8967,8 @@
         <v>86</v>
       </c>
       <c r="E37" s="6"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -8970,7 +9093,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="22" t="s">
+      <c r="J42" s="29" t="s">
         <v>91</v>
       </c>
       <c r="K42" s="7"/>
@@ -8987,17 +9110,17 @@
       <c r="W42" s="7"/>
     </row>
     <row r="43" spans="10:10">
-      <c r="J43" s="22" t="s">
+      <c r="J43" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="44" spans="10:10">
-      <c r="J44" s="22" t="s">
+      <c r="J44" s="29" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="10:10">
-      <c r="J45" s="22" t="s">
+      <c r="J45" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9141,7 +9264,7 @@
         <f>L35</f>
         <v>12623</v>
       </c>
-      <c r="M49" s="19">
+      <c r="M49" s="33">
         <v>0.02</v>
       </c>
       <c r="N49" s="8">
@@ -9216,7 +9339,7 @@
       <c r="L50" s="7">
         <v>12963</v>
       </c>
-      <c r="M50" s="19">
+      <c r="M50" s="33">
         <v>0.02</v>
       </c>
       <c r="N50" s="8">
@@ -9310,7 +9433,7 @@
       <c r="L51" s="7">
         <v>13004</v>
       </c>
-      <c r="M51" s="19">
+      <c r="M51" s="33">
         <v>0.02</v>
       </c>
       <c r="N51" s="8">
@@ -9404,7 +9527,7 @@
       <c r="L52" s="7">
         <v>13231.5</v>
       </c>
-      <c r="M52" s="19">
+      <c r="M52" s="33">
         <v>0.02</v>
       </c>
       <c r="N52" s="8">
@@ -9498,7 +9621,7 @@
       <c r="L53" s="7">
         <v>13231.5</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M53" s="33">
         <v>0.02</v>
       </c>
       <c r="N53" s="8">
@@ -9593,7 +9716,7 @@
       <c r="L54" s="7">
         <v>13113.5</v>
       </c>
-      <c r="M54" s="19">
+      <c r="M54" s="33">
         <v>0.02</v>
       </c>
       <c r="N54" s="8">
@@ -9688,7 +9811,7 @@
       <c r="L55" s="7">
         <v>13294.5</v>
       </c>
-      <c r="M55" s="19">
+      <c r="M55" s="33">
         <v>0.02</v>
       </c>
       <c r="N55" s="8">
@@ -9783,7 +9906,7 @@
       <c r="L56" s="7">
         <v>12769</v>
       </c>
-      <c r="M56" s="19">
+      <c r="M56" s="33">
         <v>0.02</v>
       </c>
       <c r="N56" s="8">
@@ -9878,7 +10001,7 @@
       <c r="L57" s="7">
         <v>11973</v>
       </c>
-      <c r="M57" s="19">
+      <c r="M57" s="33">
         <v>0.02</v>
       </c>
       <c r="N57" s="8">
@@ -9973,7 +10096,7 @@
       <c r="L58" s="7">
         <v>11136</v>
       </c>
-      <c r="M58" s="19">
+      <c r="M58" s="33">
         <v>0.02</v>
       </c>
       <c r="N58" s="8">
@@ -10068,7 +10191,7 @@
       <c r="L59" s="7">
         <v>12047.7</v>
       </c>
-      <c r="M59" s="19">
+      <c r="M59" s="33">
         <v>0.02</v>
       </c>
       <c r="N59" s="8">
@@ -10163,7 +10286,7 @@
       <c r="L60" s="7">
         <v>12403</v>
       </c>
-      <c r="M60" s="19">
+      <c r="M60" s="33">
         <v>0.02</v>
       </c>
       <c r="N60" s="8">
@@ -10222,7 +10345,7 @@
       </c>
     </row>
     <row r="61" spans="15:15">
-      <c r="O61" s="23"/>
+      <c r="O61" s="36"/>
     </row>
     <row r="67" spans="20:22">
       <c r="T67" t="s">
@@ -10242,7 +10365,7 @@
       <c r="S68" t="s">
         <v>62</v>
       </c>
-      <c r="T68" s="41">
+      <c r="T68" s="54">
         <f>6/12</f>
         <v>0.5</v>
       </c>
@@ -10259,7 +10382,7 @@
       <c r="S69" t="s">
         <v>61</v>
       </c>
-      <c r="T69" s="41">
+      <c r="T69" s="54">
         <f>6/12</f>
         <v>0.5</v>
       </c>
@@ -10283,7 +10406,7 @@
       <c r="S70" t="s">
         <v>62</v>
       </c>
-      <c r="T70" s="41">
+      <c r="T70" s="54">
         <f>11/12</f>
         <v>0.916666666666667</v>
       </c>
@@ -10300,7 +10423,7 @@
       <c r="S71" t="s">
         <v>61</v>
       </c>
-      <c r="T71" s="41">
+      <c r="T71" s="54">
         <f>1/12</f>
         <v>0.0833333333333333</v>
       </c>
@@ -10328,8 +10451,8 @@
   <sheetPr/>
   <dimension ref="A1:AB78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66:J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10383,15 +10506,15 @@
       </c>
       <c r="J3">
         <f ca="1" t="array" ref="J3:J7">_xlfn.RANDARRAY(5,1,65,90,TRUE)</f>
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="K3" t="str">
         <f ca="1" t="shared" ref="K3:K7" si="0">CHAR(J3)</f>
-        <v>X</v>
+        <v>J</v>
       </c>
       <c r="L3">
         <f ca="1" t="array" ref="L3:L7">_xlfn.RANDARRAY(5,1,0,9,TRUE)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M3" t="e">
         <f ca="1">_xlfn.CONCAT(_xlfn.ANCHORARRAY(L3))&amp;"-"&amp;_xlfn.CONCAT(K3:K7)</f>
@@ -10406,14 +10529,14 @@
         <v>75</v>
       </c>
       <c r="J4">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K4" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>I</v>
+        <v>M</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="6:12">
@@ -10424,14 +10547,14 @@
         <v>76</v>
       </c>
       <c r="J5">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K5" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>G</v>
+        <v>O</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="7:12">
@@ -10439,11 +10562,11 @@
         <v>77</v>
       </c>
       <c r="J6">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K6" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>M</v>
+        <v>Y</v>
       </c>
       <c r="L6">
         <v>7</v>
@@ -10451,14 +10574,14 @@
     </row>
     <row r="7" spans="10:12">
       <c r="J7">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K7" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>O</v>
+        <v>I</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -10582,10 +10705,10 @@
       <c r="G33">
         <v>0.82</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="33">
         <v>0</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="33">
         <v>0</v>
       </c>
       <c r="J33" s="7">
@@ -10635,10 +10758,10 @@
       <c r="G34">
         <v>127.05</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="33">
         <v>0</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="33">
         <v>0</v>
       </c>
       <c r="J34" s="7">
@@ -10695,10 +10818,10 @@
       </c>
     </row>
     <row r="36" spans="8:12">
-      <c r="H36" s="19">
+      <c r="H36" s="33">
         <v>0</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="33">
         <v>0</v>
       </c>
       <c r="J36" s="7">
@@ -10718,8 +10841,8 @@
         <v>86</v>
       </c>
       <c r="E37" s="6"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -10844,7 +10967,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="22" t="s">
+      <c r="J42" s="29" t="s">
         <v>91</v>
       </c>
       <c r="K42" s="7"/>
@@ -10861,17 +10984,17 @@
       <c r="W42" s="7"/>
     </row>
     <row r="43" spans="10:10">
-      <c r="J43" s="22" t="s">
+      <c r="J43" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="44" spans="10:10">
-      <c r="J44" s="22" t="s">
+      <c r="J44" s="29" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="10:10">
-      <c r="J45" s="22" t="s">
+      <c r="J45" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -11015,7 +11138,7 @@
         <f>L35</f>
         <v>12623</v>
       </c>
-      <c r="M49" s="19">
+      <c r="M49" s="33">
         <v>0.02</v>
       </c>
       <c r="N49" s="8">
@@ -11090,7 +11213,7 @@
       <c r="L50" s="7">
         <v>12963</v>
       </c>
-      <c r="M50" s="19">
+      <c r="M50" s="33">
         <v>0.02</v>
       </c>
       <c r="N50" s="8">
@@ -11184,7 +11307,7 @@
       <c r="L51" s="7">
         <v>13004</v>
       </c>
-      <c r="M51" s="19">
+      <c r="M51" s="33">
         <v>0.02</v>
       </c>
       <c r="N51" s="8">
@@ -11278,7 +11401,7 @@
       <c r="L52" s="7">
         <v>13231.5</v>
       </c>
-      <c r="M52" s="19">
+      <c r="M52" s="33">
         <v>0.02</v>
       </c>
       <c r="N52" s="8">
@@ -11372,7 +11495,7 @@
       <c r="L53" s="7">
         <v>13231.5</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M53" s="33">
         <v>0.02</v>
       </c>
       <c r="N53" s="8">
@@ -11467,7 +11590,7 @@
       <c r="L54" s="7">
         <v>13113.5</v>
       </c>
-      <c r="M54" s="19">
+      <c r="M54" s="33">
         <v>0.02</v>
       </c>
       <c r="N54" s="8">
@@ -11562,7 +11685,7 @@
       <c r="L55" s="7">
         <v>13294.5</v>
       </c>
-      <c r="M55" s="19">
+      <c r="M55" s="33">
         <v>0.02</v>
       </c>
       <c r="N55" s="8">
@@ -11657,7 +11780,7 @@
       <c r="L56" s="7">
         <v>12769</v>
       </c>
-      <c r="M56" s="19">
+      <c r="M56" s="33">
         <v>0.02</v>
       </c>
       <c r="N56" s="8">
@@ -11752,7 +11875,7 @@
       <c r="L57" s="7">
         <v>11973</v>
       </c>
-      <c r="M57" s="19">
+      <c r="M57" s="33">
         <v>0.02</v>
       </c>
       <c r="N57" s="8">
@@ -11847,7 +11970,7 @@
       <c r="L58" s="7">
         <v>11136</v>
       </c>
-      <c r="M58" s="19">
+      <c r="M58" s="33">
         <v>0.02</v>
       </c>
       <c r="N58" s="8">
@@ -11942,7 +12065,7 @@
       <c r="L59" s="7">
         <v>12047.7</v>
       </c>
-      <c r="M59" s="19">
+      <c r="M59" s="33">
         <v>0.02</v>
       </c>
       <c r="N59" s="8">
@@ -12037,7 +12160,7 @@
       <c r="L60" s="7">
         <v>12403</v>
       </c>
-      <c r="M60" s="19">
+      <c r="M60" s="33">
         <v>0.02</v>
       </c>
       <c r="N60" s="8">
@@ -12096,7 +12219,7 @@
       </c>
     </row>
     <row r="61" spans="15:15">
-      <c r="O61" s="23"/>
+      <c r="O61" s="36"/>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" t="s">
@@ -12164,11 +12287,11 @@
       <c r="E63" s="7">
         <v>-1</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="34">
         <f>D63*E63*100</f>
         <v>-109.5</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G63" s="34">
         <f>D64</f>
         <v>105.31</v>
       </c>
@@ -12181,7 +12304,7 @@
       <c r="J63" s="6">
         <v>40466</v>
       </c>
-      <c r="K63" s="20">
+      <c r="K63" s="34">
         <f>J63-C63</f>
         <v>44</v>
       </c>
@@ -12196,7 +12319,7 @@
       <c r="B64" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="35">
         <v>40422</v>
       </c>
       <c r="D64" s="7">
@@ -12205,7 +12328,7 @@
       <c r="E64" s="7">
         <v>100</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="34">
         <f>D64*E64</f>
         <v>10531</v>
       </c>
@@ -12217,30 +12340,30 @@
       <c r="B65" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="35">
         <v>40422</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="20">
+      <c r="F65" s="34">
         <f>F64+F63</f>
         <v>10421.5</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
-      <c r="N65" s="20">
+      <c r="N65" s="34">
         <f>H63-G63+D63</f>
         <v>6.785</v>
       </c>
       <c r="O65" s="7">
         <v>0</v>
       </c>
-      <c r="P65" s="20">
+      <c r="P65" s="34">
         <f>G63-D63</f>
         <v>104.215</v>
       </c>
-      <c r="Q65" s="20">
+      <c r="Q65" s="34">
         <f>H63+D63</f>
         <v>112.095</v>
       </c>
@@ -12250,11 +12373,11 @@
         <v>86</v>
       </c>
       <c r="C66" s="6"/>
-      <c r="F66" s="19"/>
-      <c r="J66" s="22" t="s">
+      <c r="F66" s="33"/>
+      <c r="J66" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="O66" s="23"/>
+      <c r="O66" s="36"/>
     </row>
     <row r="67" customFormat="1" spans="1:15">
       <c r="A67" t="s">
@@ -12264,14 +12387,10 @@
         <f>J65-J64</f>
         <v>0</v>
       </c>
-      <c r="J67" s="22" t="s">
+      <c r="J67" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="O67" s="23"/>
+      <c r="O67" s="36"/>
     </row>
     <row r="68" customFormat="1" spans="2:15">
       <c r="B68" s="6" t="s">
@@ -12289,17 +12408,10 @@
       <c r="F68" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68" s="22" t="s">
+      <c r="J68" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68" s="23"/>
+      <c r="O68" s="36"/>
     </row>
     <row r="69" customFormat="1" spans="1:27">
       <c r="A69" t="s">
@@ -12324,25 +12436,16 @@
         <f>C69+D69+E69</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J69" s="22" t="s">
+      <c r="J69" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="K69"/>
-      <c r="L69"/>
       <c r="M69" t="s">
         <v>126</v>
       </c>
       <c r="N69" t="s">
         <v>127</v>
       </c>
-      <c r="O69" s="23"/>
-      <c r="P69"/>
-      <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
+      <c r="O69" s="36"/>
       <c r="X69" t="s">
         <v>128</v>
       </c>
@@ -12357,168 +12460,168 @@
       </c>
     </row>
     <row r="70" customFormat="1" spans="15:15">
-      <c r="O70" s="23"/>
-    </row>
-    <row r="71" s="18" customFormat="1" ht="42.75" spans="1:28">
-      <c r="A71" s="24" t="s">
+      <c r="O70" s="36"/>
+    </row>
+    <row r="71" s="32" customFormat="1" ht="42.75" spans="1:28">
+      <c r="A71" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="E71" s="25" t="s">
+      <c r="E71" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="F71" s="26" t="s">
+      <c r="F71" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="G71" s="26" t="s">
+      <c r="G71" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="H71" s="25" t="s">
+      <c r="H71" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="I71" s="24" t="s">
+      <c r="I71" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="J71" s="32" t="s">
+      <c r="J71" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="K71" s="18" t="s">
+      <c r="K71" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="L71" s="26" t="s">
+      <c r="L71" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="M71" s="32" t="s">
+      <c r="M71" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="N71" s="32" t="s">
+      <c r="N71" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="O71" s="26" t="s">
+      <c r="O71" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="P71" s="26" t="s">
+      <c r="P71" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="Q71" s="26" t="s">
+      <c r="Q71" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="R71" s="26" t="s">
+      <c r="R71" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="S71" s="39" t="s">
+      <c r="S71" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="T71" s="26" t="s">
+      <c r="T71" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="U71" s="26" t="s">
+      <c r="U71" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="V71" s="26" t="s">
+      <c r="V71" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="X71" s="18" t="s">
+      <c r="X71" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Y71" s="18" t="s">
+      <c r="Y71" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="Z71" s="18" t="s">
+      <c r="Z71" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AA71" s="18" t="s">
+      <c r="AA71" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AB71" s="18" t="s">
+      <c r="AB71" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:22">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D72" s="29">
+      <c r="D72" s="42">
         <f>C63</f>
         <v>40422</v>
       </c>
-      <c r="E72" s="30">
+      <c r="E72" s="43">
         <v>0.395833333333333</v>
       </c>
-      <c r="F72" s="31">
+      <c r="F72" s="44">
         <f>D64</f>
         <v>105.31</v>
       </c>
-      <c r="G72" s="29">
+      <c r="G72" s="42">
         <f>J63</f>
         <v>40466</v>
       </c>
-      <c r="H72" s="30">
+      <c r="H72" s="43">
         <v>0.395833333333333</v>
       </c>
-      <c r="I72" s="33">
+      <c r="I72" s="46">
         <v>117.7</v>
       </c>
-      <c r="J72" s="34" t="s">
+      <c r="J72" s="47" t="s">
         <v>94</v>
       </c>
       <c r="K72">
         <v>577</v>
       </c>
-      <c r="L72" s="35">
+      <c r="L72" s="48">
         <f>F65</f>
         <v>10421.5</v>
       </c>
-      <c r="M72" s="36">
+      <c r="M72" s="49">
         <v>0.02</v>
       </c>
-      <c r="N72" s="37">
+      <c r="N72" s="50">
         <f>M72*L72</f>
         <v>208.43</v>
       </c>
-      <c r="O72" s="38">
+      <c r="O72" s="51">
         <f>K72/L72</f>
         <v>0.0553663100321451</v>
       </c>
-      <c r="P72" s="31">
+      <c r="P72" s="44">
         <f>D64-D63</f>
         <v>104.215</v>
       </c>
-      <c r="Q72" s="31">
+      <c r="Q72" s="44">
         <f>H63+D63</f>
         <v>112.095</v>
       </c>
-      <c r="R72" s="31" t="str">
+      <c r="R72" s="44" t="str">
         <f>IF(OR(I72&gt;Q72,I72&lt;P72),"loss","win")</f>
         <v>loss</v>
       </c>
-      <c r="S72" s="40">
+      <c r="S72" s="53">
         <f>K72</f>
         <v>577</v>
       </c>
-      <c r="T72" s="31" t="str">
+      <c r="T72" s="44" t="str">
         <f>IF(V72&lt;0,"loss","win")</f>
         <v>loss</v>
       </c>
-      <c r="U72" s="31">
+      <c r="U72" s="44">
         <f>(I72-F72)*100</f>
         <v>1239</v>
       </c>
-      <c r="V72" s="31">
+      <c r="V72" s="44">
         <f>S72-U72</f>
         <v>-662</v>
       </c>
@@ -12541,7 +12644,7 @@
       <c r="S75" t="s">
         <v>62</v>
       </c>
-      <c r="T75" s="41">
+      <c r="T75" s="54">
         <f>6/12</f>
         <v>0.5</v>
       </c>
@@ -12558,7 +12661,7 @@
       <c r="S76" t="s">
         <v>61</v>
       </c>
-      <c r="T76" s="41">
+      <c r="T76" s="54">
         <f>6/12</f>
         <v>0.5</v>
       </c>
@@ -12582,7 +12685,7 @@
       <c r="S77" t="s">
         <v>62</v>
       </c>
-      <c r="T77" s="41">
+      <c r="T77" s="54">
         <f>11/12</f>
         <v>0.916666666666667</v>
       </c>
@@ -12599,7 +12702,7 @@
       <c r="S78" t="s">
         <v>61</v>
       </c>
-      <c r="T78" s="41">
+      <c r="T78" s="54">
         <f>1/12</f>
         <v>0.0833333333333333</v>
       </c>
@@ -12627,8 +12730,8 @@
   <sheetPr/>
   <dimension ref="A1:S339"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L156" sqref="L156"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12655,7 +12758,7 @@
       </c>
     </row>
     <row r="2" ht="210" spans="6:6">
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="30" t="s">
         <v>152</v>
       </c>
     </row>
@@ -13888,10 +13991,10 @@
       <c r="A106" s="10">
         <v>40933</v>
       </c>
-      <c r="B106" s="17">
+      <c r="B106" s="31">
         <v>108.202141</v>
       </c>
-      <c r="C106" s="17">
+      <c r="C106" s="31">
         <v>18.309999</v>
       </c>
     </row>
@@ -14251,10 +14354,10 @@
       <c r="A139" s="10">
         <v>40981</v>
       </c>
-      <c r="B139" s="17">
+      <c r="B139" s="31">
         <v>114.323975</v>
       </c>
-      <c r="C139" s="17">
+      <c r="C139" s="31">
         <v>14.8</v>
       </c>
     </row>
@@ -14581,10 +14684,10 @@
       <c r="A169" s="10">
         <v>41024</v>
       </c>
-      <c r="B169" s="17">
+      <c r="B169" s="31">
         <v>114.111778</v>
       </c>
-      <c r="C169" s="17">
+      <c r="C169" s="31">
         <v>16.82</v>
       </c>
     </row>
@@ -15010,10 +15113,10 @@
       <c r="A208" s="10">
         <v>41080</v>
       </c>
-      <c r="B208" s="17">
+      <c r="B208" s="31">
         <v>111.645699</v>
       </c>
-      <c r="C208" s="17">
+      <c r="C208" s="31">
         <v>17.24</v>
       </c>
     </row>
@@ -15318,10 +15421,10 @@
       <c r="A236" s="10">
         <v>41121</v>
       </c>
-      <c r="B236" s="17">
+      <c r="B236" s="31">
         <v>113.483414</v>
       </c>
-      <c r="C236" s="17">
+      <c r="C236" s="31">
         <v>18.93</v>
       </c>
     </row>
@@ -15659,10 +15762,10 @@
       <c r="A267" s="10">
         <v>41165</v>
       </c>
-      <c r="B267" s="17">
+      <c r="B267" s="31">
         <v>120.80117</v>
       </c>
-      <c r="C267" s="17">
+      <c r="C267" s="31">
         <v>14.05</v>
       </c>
     </row>
@@ -15978,10 +16081,10 @@
       <c r="A296" s="10">
         <v>41206</v>
       </c>
-      <c r="B296" s="17">
+      <c r="B296" s="31">
         <v>116.831459</v>
       </c>
-      <c r="C296" s="17">
+      <c r="C296" s="31">
         <v>18.33</v>
       </c>
     </row>
@@ -16330,10 +16433,10 @@
       <c r="A328" s="10">
         <v>41255</v>
       </c>
-      <c r="B328" s="17">
+      <c r="B328" s="31">
         <v>118.894363</v>
       </c>
-      <c r="C328" s="17">
+      <c r="C328" s="31">
         <v>15.95</v>
       </c>
     </row>
@@ -16466,6 +16569,888 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.375" style="16" customWidth="1"/>
+    <col min="2" max="3" width="9" style="16"/>
+    <col min="4" max="4" width="10.125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="8" style="16" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="16" customWidth="1"/>
+    <col min="8" max="9" width="11" style="16" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="16" customWidth="1"/>
+    <col min="12" max="12" width="9" style="16"/>
+    <col min="13" max="13" width="13.125" style="16" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="16" customWidth="1"/>
+    <col min="15" max="15" width="13" style="16" customWidth="1"/>
+    <col min="16" max="16" width="14.75" style="16" customWidth="1"/>
+    <col min="17" max="17" width="12.375" style="16" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5" spans="4:18">
+      <c r="D2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="18">
+        <v>123.93</v>
+      </c>
+      <c r="E3" s="18">
+        <v>129</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0.92</v>
+      </c>
+      <c r="G3" s="19">
+        <v>32</v>
+      </c>
+      <c r="H3" s="20">
+        <v>40897</v>
+      </c>
+      <c r="I3" s="21">
+        <f>H3+G3</f>
+        <v>40929</v>
+      </c>
+      <c r="J3" s="22">
+        <v>131.54</v>
+      </c>
+      <c r="K3" s="23">
+        <f>D3-F3</f>
+        <v>123.01</v>
+      </c>
+      <c r="L3" s="23">
+        <f>E3+F3</f>
+        <v>129.92</v>
+      </c>
+      <c r="M3" s="23" t="str">
+        <f t="shared" ref="M3:M11" si="0">IF(OR(J3&gt;L3,J3&lt;K3),"loss","win")</f>
+        <v>loss</v>
+      </c>
+      <c r="N3" s="24">
+        <f>(IF(J3&lt;E3,J3,E3)-D3+F3)*100</f>
+        <v>598.999999999999</v>
+      </c>
+      <c r="O3" s="23" t="str">
+        <f>IF(Q3&lt;0,"loss","win")</f>
+        <v>loss</v>
+      </c>
+      <c r="P3" s="25">
+        <f>(J3-D3)*100</f>
+        <v>760.999999999999</v>
+      </c>
+      <c r="Q3" s="25">
+        <f t="shared" ref="Q3:Q11" si="1">N3-P3</f>
+        <v>-161.999999999999</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="18">
+        <v>131.54</v>
+      </c>
+      <c r="E4" s="18">
+        <v>135</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0.665</v>
+      </c>
+      <c r="G4" s="19">
+        <v>28</v>
+      </c>
+      <c r="H4" s="20">
+        <v>40564</v>
+      </c>
+      <c r="I4" s="21">
+        <f t="shared" ref="I4:I11" si="2">H4+G4</f>
+        <v>40592</v>
+      </c>
+      <c r="J4" s="22">
+        <v>136.41</v>
+      </c>
+      <c r="K4" s="23">
+        <f t="shared" ref="K4:K11" si="3">D4-F4</f>
+        <v>130.875</v>
+      </c>
+      <c r="L4" s="23">
+        <f t="shared" ref="L4:L11" si="4">E4+F4</f>
+        <v>135.665</v>
+      </c>
+      <c r="M4" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>loss</v>
+      </c>
+      <c r="N4" s="24">
+        <f t="shared" ref="N4:N11" si="5">(IF(J4&lt;E4,J4,E4)-D4+F4)*100</f>
+        <v>412.500000000001</v>
+      </c>
+      <c r="O4" s="23" t="str">
+        <f t="shared" ref="O3:O11" si="6">IF(Q4&lt;0,"loss","win")</f>
+        <v>loss</v>
+      </c>
+      <c r="P4" s="25">
+        <f t="shared" ref="P4:P11" si="7">(J4-D4)*100</f>
+        <v>487</v>
+      </c>
+      <c r="Q4" s="25">
+        <f t="shared" si="1"/>
+        <v>-74.4999999999997</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="18">
+        <v>136.41</v>
+      </c>
+      <c r="E5" s="18">
+        <v>140</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.61</v>
+      </c>
+      <c r="G5" s="19">
+        <v>23</v>
+      </c>
+      <c r="H5" s="20">
+        <v>40957</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" si="2"/>
+        <v>40980</v>
+      </c>
+      <c r="J5" s="22">
+        <v>137.58</v>
+      </c>
+      <c r="K5" s="23">
+        <f t="shared" si="3"/>
+        <v>135.8</v>
+      </c>
+      <c r="L5" s="23">
+        <f t="shared" si="4"/>
+        <v>140.61</v>
+      </c>
+      <c r="M5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>win</v>
+      </c>
+      <c r="N5" s="24">
+        <f t="shared" si="5"/>
+        <v>178.000000000002</v>
+      </c>
+      <c r="O5" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>win</v>
+      </c>
+      <c r="P5" s="25">
+        <f t="shared" si="7"/>
+        <v>117.000000000002</v>
+      </c>
+      <c r="Q5" s="25">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="18">
+        <v>140.85</v>
+      </c>
+      <c r="E6" s="18">
+        <v>144</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.92</v>
+      </c>
+      <c r="G6" s="19">
+        <v>33</v>
+      </c>
+      <c r="H6" s="20">
+        <v>40987</v>
+      </c>
+      <c r="I6" s="21">
+        <f t="shared" si="2"/>
+        <v>41020</v>
+      </c>
+      <c r="J6" s="22">
+        <v>137.95</v>
+      </c>
+      <c r="K6" s="23">
+        <f t="shared" si="3"/>
+        <v>139.93</v>
+      </c>
+      <c r="L6" s="23">
+        <f t="shared" si="4"/>
+        <v>144.92</v>
+      </c>
+      <c r="M6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>loss</v>
+      </c>
+      <c r="N6" s="24">
+        <f t="shared" si="5"/>
+        <v>-198.000000000001</v>
+      </c>
+      <c r="O6" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>win</v>
+      </c>
+      <c r="P6" s="25">
+        <f t="shared" si="7"/>
+        <v>-290.000000000001</v>
+      </c>
+      <c r="Q6" s="25">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="18">
+        <v>140.74</v>
+      </c>
+      <c r="E7" s="18">
+        <v>145</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0.885</v>
+      </c>
+      <c r="G7" s="19">
+        <v>45</v>
+      </c>
+      <c r="H7" s="20">
+        <v>41030</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" si="2"/>
+        <v>41075</v>
+      </c>
+      <c r="J7" s="22">
+        <v>134.14</v>
+      </c>
+      <c r="K7" s="23">
+        <f t="shared" si="3"/>
+        <v>139.855</v>
+      </c>
+      <c r="L7" s="23">
+        <f t="shared" si="4"/>
+        <v>145.885</v>
+      </c>
+      <c r="M7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>loss</v>
+      </c>
+      <c r="N7" s="24">
+        <f t="shared" si="5"/>
+        <v>-571.500000000002</v>
+      </c>
+      <c r="O7" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>win</v>
+      </c>
+      <c r="P7" s="25">
+        <f t="shared" si="7"/>
+        <v>-660.000000000002</v>
+      </c>
+      <c r="Q7" s="25">
+        <f t="shared" si="1"/>
+        <v>88.5</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="U7" s="29"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="18">
+        <v>132.44</v>
+      </c>
+      <c r="E8" s="18">
+        <v>137</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.695</v>
+      </c>
+      <c r="G8" s="19">
+        <v>30</v>
+      </c>
+      <c r="H8" s="20">
+        <v>41081</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="2"/>
+        <v>41111</v>
+      </c>
+      <c r="J8" s="22">
+        <v>136.47</v>
+      </c>
+      <c r="K8" s="23">
+        <f t="shared" si="3"/>
+        <v>131.745</v>
+      </c>
+      <c r="L8" s="23">
+        <f t="shared" si="4"/>
+        <v>137.695</v>
+      </c>
+      <c r="M8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>win</v>
+      </c>
+      <c r="N8" s="24">
+        <f t="shared" si="5"/>
+        <v>472.5</v>
+      </c>
+      <c r="O8" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>win</v>
+      </c>
+      <c r="P8" s="25">
+        <f t="shared" si="7"/>
+        <v>403</v>
+      </c>
+      <c r="Q8" s="25">
+        <f t="shared" si="1"/>
+        <v>69.5</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="U8" s="29"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="18">
+        <v>140.32</v>
+      </c>
+      <c r="E9" s="18">
+        <v>145</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0.84</v>
+      </c>
+      <c r="G9" s="19">
+        <v>36</v>
+      </c>
+      <c r="H9" s="20">
+        <v>41128</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="2"/>
+        <v>41164</v>
+      </c>
+      <c r="J9" s="22">
+        <v>144.39</v>
+      </c>
+      <c r="K9" s="23">
+        <f t="shared" si="3"/>
+        <v>139.48</v>
+      </c>
+      <c r="L9" s="23">
+        <f t="shared" si="4"/>
+        <v>145.84</v>
+      </c>
+      <c r="M9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>win</v>
+      </c>
+      <c r="N9" s="24">
+        <f t="shared" si="5"/>
+        <v>490.999999999999</v>
+      </c>
+      <c r="O9" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>win</v>
+      </c>
+      <c r="P9" s="25">
+        <f t="shared" si="7"/>
+        <v>406.999999999999</v>
+      </c>
+      <c r="Q9" s="25">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" s="29"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="18">
+        <v>145.645</v>
+      </c>
+      <c r="E10" s="18">
+        <v>149</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0.435</v>
+      </c>
+      <c r="G10" s="19">
+        <v>26</v>
+      </c>
+      <c r="H10" s="20">
+        <v>41176</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="2"/>
+        <v>41202</v>
+      </c>
+      <c r="J10" s="22">
+        <v>145.82</v>
+      </c>
+      <c r="K10" s="23">
+        <f t="shared" si="3"/>
+        <v>145.21</v>
+      </c>
+      <c r="L10" s="23">
+        <f t="shared" si="4"/>
+        <v>149.435</v>
+      </c>
+      <c r="M10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>win</v>
+      </c>
+      <c r="N10" s="24">
+        <f t="shared" si="5"/>
+        <v>60.9999999999983</v>
+      </c>
+      <c r="O10" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>win</v>
+      </c>
+      <c r="P10" s="25">
+        <f t="shared" si="7"/>
+        <v>17.4999999999983</v>
+      </c>
+      <c r="Q10" s="25">
+        <f t="shared" si="1"/>
+        <v>43.5</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="18">
+        <v>142.96</v>
+      </c>
+      <c r="E11" s="18">
+        <v>148</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="19">
+        <v>36</v>
+      </c>
+      <c r="H11" s="20">
+        <v>41219</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="2"/>
+        <v>41255</v>
+      </c>
+      <c r="J11" s="22">
+        <v>143.51</v>
+      </c>
+      <c r="K11" s="23">
+        <f t="shared" si="3"/>
+        <v>142.06</v>
+      </c>
+      <c r="L11" s="23">
+        <f t="shared" si="4"/>
+        <v>148.9</v>
+      </c>
+      <c r="M11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>win</v>
+      </c>
+      <c r="N11" s="24">
+        <f t="shared" si="5"/>
+        <v>144.999999999998</v>
+      </c>
+      <c r="O11" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>win</v>
+      </c>
+      <c r="P11" s="25">
+        <f t="shared" si="7"/>
+        <v>54.9999999999983</v>
+      </c>
+      <c r="Q11" s="25">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="18">
+        <v>123.93</v>
+      </c>
+      <c r="E18" s="18">
+        <v>129</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0.92</v>
+      </c>
+      <c r="G18" s="19">
+        <v>32</v>
+      </c>
+      <c r="H18" s="20">
+        <v>40897</v>
+      </c>
+      <c r="I18" s="21">
+        <f>H18+G18</f>
+        <v>40929</v>
+      </c>
+      <c r="J18" s="22">
+        <v>131.54</v>
+      </c>
+      <c r="K18" s="23">
+        <f>D18-F18</f>
+        <v>123.01</v>
+      </c>
+      <c r="L18" s="23">
+        <f>E18+F18</f>
+        <v>129.92</v>
+      </c>
+      <c r="M18" s="23" t="str">
+        <f>IF(OR(J18&gt;L18,J18&lt;K18),"loss","win")</f>
+        <v>loss</v>
+      </c>
+      <c r="N18" s="27">
+        <v>599</v>
+      </c>
+      <c r="O18" s="16" t="str">
+        <f>IF(Q18&lt;0,"loss","win")</f>
+        <v>loss</v>
+      </c>
+      <c r="P18" s="28">
+        <f>(J18-D18)*100</f>
+        <v>760.999999999999</v>
+      </c>
+      <c r="Q18" s="28">
+        <f>N18-P18</f>
+        <v>-161.999999999999</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9">
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="8:9">
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="8:9">
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="8:9">
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="8:9">
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="8:9">
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="8:9">
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="8:9">
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="8:15">
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="N28" s="16">
+        <v>598.999999999999</v>
+      </c>
+      <c r="O28" s="16">
+        <v>760.999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="8:15">
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="N29" s="16">
+        <v>412.5</v>
+      </c>
+      <c r="O29" s="16">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="30" spans="8:15">
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="N30" s="16">
+        <v>171</v>
+      </c>
+      <c r="O30" s="16">
+        <v>117.000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="8:15">
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="N31" s="16">
+        <v>-214.5</v>
+      </c>
+      <c r="O31" s="16">
+        <v>-290.000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="14:15">
+      <c r="N32" s="16">
+        <v>-572</v>
+      </c>
+      <c r="O32" s="16">
+        <v>-660.000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15">
+      <c r="N33" s="16">
+        <v>472.5</v>
+      </c>
+      <c r="O33" s="16">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15">
+      <c r="N34" s="16">
+        <v>397</v>
+      </c>
+      <c r="O34" s="16">
+        <v>406.999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="14:15">
+      <c r="N35" s="16">
+        <v>61</v>
+      </c>
+      <c r="O35" s="16">
+        <v>17.4999999999983</v>
+      </c>
+    </row>
+    <row r="36" spans="14:15">
+      <c r="N36" s="16">
+        <v>138</v>
+      </c>
+      <c r="O36" s="16">
+        <v>54.9999999999983</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3 R4:R11">
+      <formula1>"expire,take profit,adjust,stop loss"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:U32"/>
@@ -16510,42 +17495,42 @@
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="4" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="4" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="4" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="4" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="4" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="4" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="15" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -16590,10 +17575,10 @@
         <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="J18" t="s">
         <v>102</v>
@@ -16658,7 +17643,7 @@
         <v>45.6323</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="J19" s="12">
         <v>0.395833333333333</v>
@@ -16729,7 +17714,7 @@
         <v>40.5565</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="J20" s="12">
         <v>0.395833333333333</v>
@@ -16800,7 +17785,7 @@
         <v>49.6974</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="J21" s="12">
         <v>0.395833333333333</v>
@@ -16871,7 +17856,7 @@
         <v>35.6417</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="J22" s="12">
         <v>0.395833333333333</v>
@@ -16942,7 +17927,7 @@
         <v>50.3814</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="J23" s="12">
         <v>0.395833333333333</v>
@@ -17013,7 +17998,7 @@
         <v>42.4969</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="J24" s="12">
         <v>0.395833333333333</v>
@@ -17084,7 +18069,7 @@
         <v>44.8684</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="J25" s="12">
         <v>0.395833333333333</v>
@@ -17155,7 +18140,7 @@
         <v>30.0694</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="J26" s="12">
         <v>0.395833333333333</v>
@@ -17226,7 +18211,7 @@
         <v>50.2389</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="J27" s="12">
         <v>0.395833333333333</v>
@@ -17273,7 +18258,7 @@
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -17283,7 +18268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA37"/>
@@ -17313,21 +18298,21 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="4" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -17364,17 +18349,17 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -17428,13 +18413,13 @@
         <v>101</v>
       </c>
       <c r="M23" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="N23" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="O23" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="P23" t="s">
         <v>102</v>
@@ -17502,7 +18487,7 @@
         <v>53.8716</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="O24" s="11">
         <v>0.2</v>
@@ -17579,7 +18564,7 @@
         <v>48.5227</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="O25" s="11">
         <v>0.2</v>
@@ -17656,7 +18641,7 @@
         <v>59.6707</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="O26" s="11">
         <v>0.4</v>
@@ -17733,7 +18718,7 @@
         <v>49.2788</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="O27" s="11">
         <v>0.2</v>
@@ -17810,7 +18795,7 @@
         <v>42.49</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="O28" s="11">
         <v>0.2</v>
@@ -17887,7 +18872,7 @@
         <v>44.8684</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="O29" s="11">
         <v>0.2</v>
@@ -17961,7 +18946,7 @@
         <v>49.3</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="O30" s="11">
         <v>0.2</v>
@@ -18035,7 +19020,7 @@
         <v>50.2389</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="O31" s="11">
         <v>0.2</v>
@@ -18119,7 +19104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Y39"/>
@@ -18153,45 +19138,45 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="4" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="4" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="4" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="4" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="4" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="11:11">
       <c r="K10" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="11:11">
@@ -18212,7 +19197,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="K13" s="6">
         <v>41114</v>
@@ -18234,7 +19219,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="K15" s="6">
         <v>41297</v>
@@ -18245,17 +19230,17 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -18300,16 +19285,16 @@
         <v>101</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="N23" t="s">
         <v>102</v>
@@ -18374,7 +19359,7 @@
         <v>47.2096</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="L24" s="11">
         <v>0.2</v>
@@ -18451,7 +19436,7 @@
         <v>54.0074</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="L25" s="11">
         <v>0.2</v>
@@ -18528,7 +19513,7 @@
         <v>49.3928</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="L26" s="11">
         <v>0.2</v>
@@ -18605,7 +19590,7 @@
         <v>46.2631</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="L27" s="11">
         <v>0.2</v>
@@ -18682,7 +19667,7 @@
         <v>40.396</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="L28" s="11">
         <v>0.2</v>
@@ -18735,7 +19720,7 @@
     </row>
     <row r="32" spans="4:4">
       <c r="D32" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="4:6">
@@ -18760,7 +19745,7 @@
     </row>
     <row r="35" spans="4:6">
       <c r="D35" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E35" s="7">
         <f>100*(E34-E33)</f>
@@ -18786,38 +19771,10 @@
     </row>
     <row r="39" spans="5:6">
       <c r="E39" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F39" t="s">
-        <v>209</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L156" sqref="L156"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" ht="25.5" spans="1:3">
-      <c r="A1" s="1">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/221024_反推期权价/记录.xlsx
+++ b/221024_反推期权价/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="1" r:id="rId1"/>
@@ -13,24 +13,25 @@
     <sheet name="my_recoreds" sheetId="16" r:id="rId4"/>
     <sheet name="3 T" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="17" r:id="rId6"/>
-    <sheet name="4 S" sheetId="5" r:id="rId7"/>
-    <sheet name="5 K" sheetId="6" r:id="rId8"/>
-    <sheet name="6 vol" sheetId="7" r:id="rId9"/>
-    <sheet name="7 other" sheetId="8" r:id="rId10"/>
-    <sheet name="8 take profit" sheetId="9" r:id="rId11"/>
-    <sheet name="9 stop loss" sheetId="10" r:id="rId12"/>
-    <sheet name="10 plan" sheetId="11" r:id="rId13"/>
-    <sheet name="11 watchlist" sheetId="14" r:id="rId14"/>
-    <sheet name="12 entry" sheetId="12" r:id="rId15"/>
-    <sheet name="13 exit" sheetId="13" r:id="rId16"/>
-    <sheet name="14 diary" sheetId="15" r:id="rId17"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId7"/>
+    <sheet name="4 S" sheetId="5" r:id="rId8"/>
+    <sheet name="5 K" sheetId="6" r:id="rId9"/>
+    <sheet name="6 vol" sheetId="7" r:id="rId10"/>
+    <sheet name="7 other" sheetId="8" r:id="rId11"/>
+    <sheet name="8 take profit" sheetId="9" r:id="rId12"/>
+    <sheet name="9 stop loss" sheetId="10" r:id="rId13"/>
+    <sheet name="10 plan" sheetId="11" r:id="rId14"/>
+    <sheet name="11 watchlist" sheetId="14" r:id="rId15"/>
+    <sheet name="12 entry" sheetId="12" r:id="rId16"/>
+    <sheet name="13 exit" sheetId="13" r:id="rId17"/>
+    <sheet name="14 diary" sheetId="15" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="252">
   <si>
     <t>7$qRL*.H5A6qTtf</t>
   </si>
@@ -612,6 +613,58 @@
   <si>
     <t>T
 (期权期限)</t>
+  </si>
+  <si>
+    <t>TRADE</t>
+  </si>
+  <si>
+    <t>trade_id</t>
+  </si>
+  <si>
+    <t>introduction_id</t>
+  </si>
+  <si>
+    <t>type
+(进入/调整/退出)</t>
+  </si>
+  <si>
+    <t>本次操作涉及仓位</t>
+  </si>
+  <si>
+    <t>本次操作后仓位</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>历史trade记录</t>
+  </si>
+  <si>
+    <t>last_trade</t>
+  </si>
+  <si>
+    <t>进入</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>进入:+100</t>
+  </si>
+  <si>
+    <t>进入:-100</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>SPY stock</t>
   </si>
   <si>
     <t>uptrend &amp; stable: boring in the short term,</t>
@@ -770,8 +823,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -952,7 +1005,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -974,12 +1027,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,10 +1362,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1327,14 +1374,14 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1344,10 +1391,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1368,28 +1415,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1398,16 +1445,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1419,41 +1469,38 @@
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1467,15 +1514,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1485,7 +1535,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1494,7 +1544,7 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1503,80 +1553,68 @@
     <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1985,6 +2023,685 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:Y39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="9.70833333333333" customWidth="1"/>
+    <col min="5" max="6" width="10.5666666666667" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="11" max="11" width="16.2833333333333" customWidth="1"/>
+    <col min="15" max="15" width="10.425" customWidth="1"/>
+    <col min="17" max="19" width="9.28333333333333" customWidth="1"/>
+    <col min="21" max="21" width="10.2833333333333" customWidth="1"/>
+    <col min="23" max="24" width="10.425" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:3">
+      <c r="A1" s="1">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="11:11">
+      <c r="K10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="11:11">
+      <c r="K11" s="6">
+        <v>40932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="6">
+        <v>41023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="6">
+        <v>41114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" s="6">
+        <v>41207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>231</v>
+      </c>
+      <c r="K15" s="6">
+        <v>41297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15">
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" t="s">
+        <v>83</v>
+      </c>
+      <c r="O22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25">
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" t="s">
+        <v>233</v>
+      </c>
+      <c r="N23" t="s">
+        <v>102</v>
+      </c>
+      <c r="O23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" t="s">
+        <v>88</v>
+      </c>
+      <c r="S23" t="s">
+        <v>108</v>
+      </c>
+      <c r="T23" t="s">
+        <v>57</v>
+      </c>
+      <c r="U23" t="s">
+        <v>87</v>
+      </c>
+      <c r="V23" t="s">
+        <v>109</v>
+      </c>
+      <c r="W23" t="s">
+        <v>162</v>
+      </c>
+      <c r="X23" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="5">
+        <v>545.17</v>
+      </c>
+      <c r="G24" s="5">
+        <v>590</v>
+      </c>
+      <c r="H24" s="5">
+        <v>5.575</v>
+      </c>
+      <c r="I24" s="10">
+        <v>40977</v>
+      </c>
+      <c r="J24" s="11">
+        <v>47.2096</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M24" s="11">
+        <v>26.91</v>
+      </c>
+      <c r="N24" s="12">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="O24" s="13">
+        <v>41020</v>
+      </c>
+      <c r="P24" s="12">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="Q24" s="7">
+        <f>F24-H24</f>
+        <v>539.595</v>
+      </c>
+      <c r="R24" s="14">
+        <v>572.98</v>
+      </c>
+      <c r="S24" s="7">
+        <f>G24+H24</f>
+        <v>595.575</v>
+      </c>
+      <c r="T24" s="7" t="str">
+        <f>IF(OR(R24&gt;S24,R24&lt;Q24),"loss","win")</f>
+        <v>win</v>
+      </c>
+      <c r="U24" s="14">
+        <v>3338.5</v>
+      </c>
+      <c r="V24" s="7" t="str">
+        <f>IF(X24&lt;0,"loss","win")</f>
+        <v>win</v>
+      </c>
+      <c r="W24" s="7">
+        <f>(R24-F24)*100</f>
+        <v>2781.00000000001</v>
+      </c>
+      <c r="X24" s="7">
+        <f>U24-W24</f>
+        <v>557.499999999994</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25">
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="5">
+        <v>582.13</v>
+      </c>
+      <c r="G25" s="5">
+        <v>615</v>
+      </c>
+      <c r="H25" s="5">
+        <v>6.85</v>
+      </c>
+      <c r="I25" s="10">
+        <v>41030</v>
+      </c>
+      <c r="J25" s="11">
+        <v>54.0074</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M25" s="11">
+        <v>29.21</v>
+      </c>
+      <c r="N25" s="12">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="O25" s="13">
+        <v>41076</v>
+      </c>
+      <c r="P25" s="12">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="Q25" s="7">
+        <f>F25-H25</f>
+        <v>575.28</v>
+      </c>
+      <c r="R25" s="14">
+        <v>574.13</v>
+      </c>
+      <c r="S25" s="7">
+        <f>G25+H25</f>
+        <v>621.85</v>
+      </c>
+      <c r="T25" s="7" t="str">
+        <f>IF(OR(R25&gt;S25,R25&lt;Q25),"loss","win")</f>
+        <v>loss</v>
+      </c>
+      <c r="U25" s="14">
+        <v>-115</v>
+      </c>
+      <c r="V25" s="7" t="str">
+        <f>IF(X25&lt;0,"loss","win")</f>
+        <v>win</v>
+      </c>
+      <c r="W25" s="7">
+        <f>(R25-F25)*100</f>
+        <v>-800</v>
+      </c>
+      <c r="X25" s="7">
+        <f>U25-W25</f>
+        <v>685</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25">
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="5">
+        <v>599.41</v>
+      </c>
+      <c r="G26" s="5">
+        <v>655</v>
+      </c>
+      <c r="H26" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="I26" s="10">
+        <v>41093</v>
+      </c>
+      <c r="J26" s="11">
+        <v>49.3928</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M26" s="11">
+        <v>27.91</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="O26" s="13">
+        <v>41113</v>
+      </c>
+      <c r="P26" s="12">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="Q26" s="7">
+        <f>F26-H26</f>
+        <v>593.31</v>
+      </c>
+      <c r="R26" s="14">
+        <v>603.83</v>
+      </c>
+      <c r="S26" s="7">
+        <f>G26+H26</f>
+        <v>661.1</v>
+      </c>
+      <c r="T26" s="7" t="str">
+        <f>IF(OR(R26&gt;S26,R26&lt;Q26),"loss","win")</f>
+        <v>win</v>
+      </c>
+      <c r="U26" s="14">
+        <v>592</v>
+      </c>
+      <c r="V26" s="7" t="str">
+        <f>IF(X26&lt;0,"loss","win")</f>
+        <v>win</v>
+      </c>
+      <c r="W26" s="7">
+        <f>(R26-F26)*100</f>
+        <v>442.000000000007</v>
+      </c>
+      <c r="X26" s="7">
+        <f>U26-W26</f>
+        <v>149.999999999993</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25">
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="5">
+        <v>670.23</v>
+      </c>
+      <c r="G27" s="5">
+        <v>730</v>
+      </c>
+      <c r="H27" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="I27" s="10">
+        <v>41157</v>
+      </c>
+      <c r="J27" s="11">
+        <v>46.2631</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M27" s="11">
+        <v>27.14</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="O27" s="13">
+        <v>41113</v>
+      </c>
+      <c r="P27" s="12">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="Q27" s="7">
+        <f>F27-H27</f>
+        <v>663.63</v>
+      </c>
+      <c r="R27" s="14">
+        <v>632.64</v>
+      </c>
+      <c r="S27" s="7">
+        <f>G27+H27</f>
+        <v>736.6</v>
+      </c>
+      <c r="T27" s="7" t="str">
+        <f>IF(OR(R27&gt;S27,R27&lt;Q27),"loss","win")</f>
+        <v>loss</v>
+      </c>
+      <c r="U27" s="14">
+        <v>-3099</v>
+      </c>
+      <c r="V27" s="7" t="str">
+        <f>IF(X27&lt;0,"loss","win")</f>
+        <v>win</v>
+      </c>
+      <c r="W27" s="7">
+        <f>(R27-F27)*100</f>
+        <v>-3759</v>
+      </c>
+      <c r="X27" s="7">
+        <f>U27-W27</f>
+        <v>660.000000000003</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25">
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="5">
+        <v>547.2445</v>
+      </c>
+      <c r="G28" s="5">
+        <v>615</v>
+      </c>
+      <c r="H28" s="5">
+        <v>6.725</v>
+      </c>
+      <c r="I28" s="10">
+        <v>41249</v>
+      </c>
+      <c r="J28" s="11">
+        <v>40.396</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M28" s="11">
+        <v>36.1</v>
+      </c>
+      <c r="N28" s="12">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="O28" s="13">
+        <v>41293</v>
+      </c>
+      <c r="P28" s="12">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="Q28" s="7">
+        <f>F28-H28</f>
+        <v>540.5195</v>
+      </c>
+      <c r="R28" s="14">
+        <v>500</v>
+      </c>
+      <c r="S28" s="7">
+        <f>G28+H28</f>
+        <v>621.725</v>
+      </c>
+      <c r="T28" s="7" t="str">
+        <f>IF(OR(R28&gt;S28,R28&lt;Q28),"loss","win")</f>
+        <v>loss</v>
+      </c>
+      <c r="U28" s="14">
+        <v>-4051.95</v>
+      </c>
+      <c r="V28" s="7" t="str">
+        <f>IF(X28&lt;0,"loss","win")</f>
+        <v>win</v>
+      </c>
+      <c r="W28" s="7">
+        <f>(R28-F28)*100</f>
+        <v>-4724.45</v>
+      </c>
+      <c r="X28" s="7">
+        <f>U28-W28</f>
+        <v>672.500000000002</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" s="6">
+        <v>40909</v>
+      </c>
+      <c r="E33" s="7">
+        <v>405</v>
+      </c>
+      <c r="F33" s="8">
+        <f>100*E33</f>
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="6">
+        <v>41293</v>
+      </c>
+      <c r="E34" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6">
+      <c r="D35" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" s="7">
+        <f>100*(E34-E33)</f>
+        <v>9500</v>
+      </c>
+      <c r="F35" s="9">
+        <f>E35/F33</f>
+        <v>0.234567901234568</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6">
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="8">
+        <f>E35+SUM(X24:X28)</f>
+        <v>12225</v>
+      </c>
+      <c r="F36" s="9">
+        <f>E36/F33</f>
+        <v>0.301851851851852</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6">
+      <c r="E39" t="s">
+        <v>236</v>
+      </c>
+      <c r="F39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2001,7 +2718,7 @@
         <v>151</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2010,7 +2727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C8"/>
@@ -2026,7 +2743,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
         <v>91</v>
@@ -2034,17 +2751,17 @@
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="4" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="4" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="4" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L7"/>
@@ -2069,7 +2786,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
         <v>92</v>
@@ -2077,42 +2794,17 @@
     </row>
     <row r="5" spans="12:12">
       <c r="L5" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="4" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L156" sqref="L156"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="1">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2132,12 +2824,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" ht="24.75" spans="1:2">
+    <row r="1" ht="15" spans="1:2">
       <c r="A1" s="1">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>230</v>
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2157,12 +2849,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:2">
+    <row r="1" ht="24.75" spans="1:2">
       <c r="A1" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2172,6 +2864,31 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L156" sqref="L156"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:2">
+      <c r="A1" s="1">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C8"/>
@@ -2187,12 +2904,12 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="4" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="3:3">
@@ -2204,7 +2921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B1"/>
@@ -2220,7 +2937,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2402,7 +3119,7 @@
       <c r="K12" s="36">
         <v>0.1609</v>
       </c>
-      <c r="L12" s="55">
+      <c r="L12" s="52">
         <v>40228</v>
       </c>
       <c r="M12">
@@ -5438,7 +6155,7 @@
       <c r="H119" t="s">
         <v>62</v>
       </c>
-      <c r="I119" s="54">
+      <c r="I119" s="51">
         <f>2/8</f>
         <v>0.25</v>
       </c>
@@ -5455,7 +6172,7 @@
       <c r="H120" t="s">
         <v>61</v>
       </c>
-      <c r="I120" s="54">
+      <c r="I120" s="51">
         <f>6/8</f>
         <v>0.75</v>
       </c>
@@ -5479,7 +6196,7 @@
       <c r="H121" t="s">
         <v>62</v>
       </c>
-      <c r="I121" s="54">
+      <c r="I121" s="51">
         <f>6/8</f>
         <v>0.75</v>
       </c>
@@ -5496,7 +6213,7 @@
       <c r="H122" t="s">
         <v>61</v>
       </c>
-      <c r="I122" s="54">
+      <c r="I122" s="51">
         <f>2/8</f>
         <v>0.25</v>
       </c>
@@ -5836,7 +6553,7 @@
       <c r="G143" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H143" s="56" t="s">
+      <c r="H143" s="53" t="s">
         <v>18</v>
       </c>
       <c r="I143" s="11" t="s">
@@ -5857,7 +6574,7 @@
       <c r="N143" t="s">
         <v>26</v>
       </c>
-      <c r="O143" s="56" t="s">
+      <c r="O143" s="53" t="s">
         <v>2</v>
       </c>
       <c r="P143" t="s">
@@ -5900,7 +6617,7 @@
         <v>10116</v>
       </c>
       <c r="G144" s="31"/>
-      <c r="H144" s="57">
+      <c r="H144" s="54">
         <f>I139</f>
         <v>25.44</v>
       </c>
@@ -5924,7 +6641,7 @@
         <f>100-75.13</f>
         <v>24.87</v>
       </c>
-      <c r="O144" s="57">
+      <c r="O144" s="54">
         <f>G139</f>
         <v>102.76</v>
       </c>
@@ -5956,7 +6673,7 @@
         <f t="shared" ref="G145:G148" si="14">F145-F$82</f>
         <v>10268</v>
       </c>
-      <c r="H145" s="57">
+      <c r="H145" s="54">
         <v>23.3</v>
       </c>
       <c r="I145" s="31">
@@ -5978,7 +6695,7 @@
         <f>110-79.53</f>
         <v>30.47</v>
       </c>
-      <c r="O145" s="57">
+      <c r="O145" s="54">
         <v>102.2</v>
       </c>
       <c r="P145" s="7">
@@ -6027,7 +6744,7 @@
         <f t="shared" si="14"/>
         <v>10329.5</v>
       </c>
-      <c r="H146" s="57">
+      <c r="H146" s="54">
         <v>22.81</v>
       </c>
       <c r="I146" s="31">
@@ -6049,7 +6766,7 @@
         <f>100-77.64</f>
         <v>22.36</v>
       </c>
-      <c r="O146" s="57">
+      <c r="O146" s="54">
         <v>102.87</v>
       </c>
       <c r="P146" s="7">
@@ -6098,7 +6815,7 @@
         <f t="shared" si="14"/>
         <v>10549.25</v>
       </c>
-      <c r="H147" s="57">
+      <c r="H147" s="54">
         <v>23.22</v>
       </c>
       <c r="I147" s="31">
@@ -6120,7 +6837,7 @@
         <f>100-64.54</f>
         <v>35.46</v>
       </c>
-      <c r="O147" s="57">
+      <c r="O147" s="54">
         <v>106.1</v>
       </c>
       <c r="P147" s="7">
@@ -6582,7 +7299,7 @@
         <f>C169</f>
         <v>40483</v>
       </c>
-      <c r="D170" s="58">
+      <c r="D170" s="55">
         <v>118.53</v>
       </c>
       <c r="E170" s="7">
@@ -6689,7 +7406,7 @@
       <c r="C175" s="6">
         <v>40513</v>
       </c>
-      <c r="D175" s="58">
+      <c r="D175" s="55">
         <v>1.295</v>
       </c>
       <c r="E175" s="7">
@@ -6731,7 +7448,7 @@
         <f>C175</f>
         <v>40513</v>
       </c>
-      <c r="D176" s="58">
+      <c r="D176" s="55">
         <v>121.01</v>
       </c>
       <c r="E176" s="7">
@@ -6838,7 +7555,7 @@
       <c r="C181" s="6">
         <v>40546</v>
       </c>
-      <c r="D181" s="58">
+      <c r="D181" s="55">
         <v>1.445</v>
       </c>
       <c r="E181" s="7">
@@ -6880,7 +7597,7 @@
         <f>C181</f>
         <v>40546</v>
       </c>
-      <c r="D182" s="58">
+      <c r="D182" s="55">
         <v>127.05</v>
       </c>
       <c r="E182" s="7">
@@ -6987,7 +7704,7 @@
       <c r="C187" s="6">
         <v>40575</v>
       </c>
-      <c r="D187" s="58">
+      <c r="D187" s="55">
         <v>1.11</v>
       </c>
       <c r="E187" s="7">
@@ -7029,7 +7746,7 @@
         <f>C187</f>
         <v>40575</v>
       </c>
-      <c r="D188" s="58">
+      <c r="D188" s="55">
         <v>130.74</v>
       </c>
       <c r="E188" s="7">
@@ -7136,7 +7853,7 @@
       <c r="C193" s="6">
         <v>40603</v>
       </c>
-      <c r="D193" s="58">
+      <c r="D193" s="55">
         <v>1.4</v>
       </c>
       <c r="E193" s="7">
@@ -7178,7 +7895,7 @@
         <f>C193</f>
         <v>40603</v>
       </c>
-      <c r="D194" s="58">
+      <c r="D194" s="55">
         <v>130.93</v>
       </c>
       <c r="E194" s="7">
@@ -7285,7 +8002,7 @@
       <c r="C199" s="6">
         <v>40634</v>
       </c>
-      <c r="D199" s="58">
+      <c r="D199" s="55">
         <v>1.55</v>
       </c>
       <c r="E199" s="7">
@@ -7327,7 +8044,7 @@
         <f>C199</f>
         <v>40634</v>
       </c>
-      <c r="D200" s="58">
+      <c r="D200" s="55">
         <v>133.15</v>
       </c>
       <c r="E200" s="7">
@@ -7434,7 +8151,7 @@
       <c r="C205" s="6">
         <v>40665</v>
       </c>
-      <c r="D205" s="58">
+      <c r="D205" s="55">
         <v>0.705</v>
       </c>
       <c r="E205" s="7">
@@ -7476,7 +8193,7 @@
         <f>C205</f>
         <v>40665</v>
       </c>
-      <c r="D206" s="58">
+      <c r="D206" s="55">
         <v>136.22</v>
       </c>
       <c r="E206" s="7">
@@ -7583,7 +8300,7 @@
       <c r="C211" s="6">
         <v>40695</v>
       </c>
-      <c r="D211" s="58">
+      <c r="D211" s="55">
         <v>0.84</v>
       </c>
       <c r="E211" s="7">
@@ -7625,7 +8342,7 @@
         <f>C211</f>
         <v>40695</v>
       </c>
-      <c r="D212" s="58">
+      <c r="D212" s="55">
         <v>131.87</v>
       </c>
       <c r="E212" s="7">
@@ -7732,7 +8449,7 @@
       <c r="C217" s="6">
         <v>40725</v>
       </c>
-      <c r="D217" s="58">
+      <c r="D217" s="55">
         <v>0.975</v>
       </c>
       <c r="E217" s="7">
@@ -7774,7 +8491,7 @@
         <f>C217</f>
         <v>40725</v>
       </c>
-      <c r="D218" s="58">
+      <c r="D218" s="55">
         <v>133.92</v>
       </c>
       <c r="E218" s="7">
@@ -7881,7 +8598,7 @@
       <c r="C223" s="6">
         <v>40756</v>
       </c>
-      <c r="D223" s="58">
+      <c r="D223" s="55">
         <v>1.435</v>
       </c>
       <c r="E223" s="7">
@@ -7923,7 +8640,7 @@
         <f>C223</f>
         <v>40756</v>
       </c>
-      <c r="D224" s="58">
+      <c r="D224" s="55">
         <v>128.78</v>
       </c>
       <c r="E224" s="7">
@@ -8030,7 +8747,7 @@
       <c r="C229" s="6">
         <v>40787</v>
       </c>
-      <c r="D229" s="58">
+      <c r="D229" s="55">
         <v>2395</v>
       </c>
       <c r="E229" s="7">
@@ -8072,7 +8789,7 @@
         <f>C229</f>
         <v>40787</v>
       </c>
-      <c r="D230" s="58">
+      <c r="D230" s="55">
         <v>120.94</v>
       </c>
       <c r="E230" s="7">
@@ -8179,7 +8896,7 @@
       <c r="C235" s="6">
         <v>40819</v>
       </c>
-      <c r="D235" s="58">
+      <c r="D235" s="55">
         <v>4.385</v>
       </c>
       <c r="E235" s="7">
@@ -8221,7 +8938,7 @@
         <f>C235</f>
         <v>40819</v>
       </c>
-      <c r="D236" s="58">
+      <c r="D236" s="55">
         <v>109.93</v>
       </c>
       <c r="E236" s="7">
@@ -8328,7 +9045,7 @@
       <c r="C241" s="6">
         <v>40848</v>
       </c>
-      <c r="D241" s="58">
+      <c r="D241" s="55">
         <v>2.69</v>
       </c>
       <c r="E241" s="7">
@@ -8370,7 +9087,7 @@
         <f>C241</f>
         <v>40848</v>
       </c>
-      <c r="D242" s="58">
+      <c r="D242" s="55">
         <v>122.002</v>
       </c>
       <c r="E242" s="7">
@@ -8477,7 +9194,7 @@
       <c r="C247" s="6">
         <v>40878</v>
       </c>
-      <c r="D247" s="58">
+      <c r="D247" s="55">
         <v>2.165</v>
       </c>
       <c r="E247" s="7">
@@ -8519,7 +9236,7 @@
         <f>C247</f>
         <v>40878</v>
       </c>
-      <c r="D248" s="58">
+      <c r="D248" s="55">
         <v>124.97</v>
       </c>
       <c r="E248" s="7">
@@ -8632,15 +9349,15 @@
       </c>
       <c r="J3">
         <f ca="1" t="array" ref="J3:J7">_xlfn.RANDARRAY(5,1,65,90,TRUE)</f>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K3" t="str">
         <f ca="1">CHAR(J3)</f>
-        <v>K</v>
+        <v>Q</v>
       </c>
       <c r="L3">
         <f ca="1" t="array" ref="L3:L7">_xlfn.RANDARRAY(5,1,0,9,TRUE)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M3" t="e">
         <f ca="1">_xlfn.CONCAT(_xlfn.ANCHORARRAY(L3))&amp;"-"&amp;_xlfn.CONCAT(K3:K7)</f>
@@ -8655,14 +9372,14 @@
         <v>75</v>
       </c>
       <c r="J4">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K4" t="str">
         <f ca="1">CHAR(J4)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="6:12">
@@ -8673,14 +9390,14 @@
         <v>76</v>
       </c>
       <c r="J5">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K5" t="str">
         <f ca="1">CHAR(J5)</f>
-        <v>R</v>
+        <v>W</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="7:12">
@@ -8688,23 +9405,23 @@
         <v>77</v>
       </c>
       <c r="J6">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="K6" t="str">
         <f ca="1">CHAR(J6)</f>
-        <v>U</v>
+        <v>C</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="10:12">
       <c r="J7">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K7" t="str">
         <f ca="1">CHAR(J7)</f>
-        <v>I</v>
+        <v>O</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -10365,7 +11082,7 @@
       <c r="S68" t="s">
         <v>62</v>
       </c>
-      <c r="T68" s="54">
+      <c r="T68" s="51">
         <f>6/12</f>
         <v>0.5</v>
       </c>
@@ -10382,7 +11099,7 @@
       <c r="S69" t="s">
         <v>61</v>
       </c>
-      <c r="T69" s="54">
+      <c r="T69" s="51">
         <f>6/12</f>
         <v>0.5</v>
       </c>
@@ -10406,7 +11123,7 @@
       <c r="S70" t="s">
         <v>62</v>
       </c>
-      <c r="T70" s="54">
+      <c r="T70" s="51">
         <f>11/12</f>
         <v>0.916666666666667</v>
       </c>
@@ -10423,7 +11140,7 @@
       <c r="S71" t="s">
         <v>61</v>
       </c>
-      <c r="T71" s="54">
+      <c r="T71" s="51">
         <f>1/12</f>
         <v>0.0833333333333333</v>
       </c>
@@ -10451,8 +11168,8 @@
   <sheetPr/>
   <dimension ref="A1:AB78"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66:J69"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10506,11 +11223,11 @@
       </c>
       <c r="J3">
         <f ca="1" t="array" ref="J3:J7">_xlfn.RANDARRAY(5,1,65,90,TRUE)</f>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K3" t="str">
         <f ca="1" t="shared" ref="K3:K7" si="0">CHAR(J3)</f>
-        <v>J</v>
+        <v>D</v>
       </c>
       <c r="L3">
         <f ca="1" t="array" ref="L3:L7">_xlfn.RANDARRAY(5,1,0,9,TRUE)</f>
@@ -10529,14 +11246,14 @@
         <v>75</v>
       </c>
       <c r="J4">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K4" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>M</v>
+        <v>Q</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="6:12">
@@ -10547,14 +11264,14 @@
         <v>76</v>
       </c>
       <c r="J5">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K5" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>O</v>
+        <v>C</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="7:12">
@@ -10562,11 +11279,11 @@
         <v>77</v>
       </c>
       <c r="J6">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K6" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="L6">
         <v>7</v>
@@ -10574,11 +11291,11 @@
     </row>
     <row r="7" spans="10:12">
       <c r="J7">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K7" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>I</v>
+        <v>L</v>
       </c>
       <c r="L7">
         <v>8</v>
@@ -12463,70 +13180,70 @@
       <c r="O70" s="36"/>
     </row>
     <row r="71" s="32" customFormat="1" ht="42.75" spans="1:28">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="D71" s="39" t="s">
+      <c r="D71" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="E71" s="38" t="s">
+      <c r="E71" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="F71" s="39" t="s">
+      <c r="F71" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="G71" s="39" t="s">
+      <c r="G71" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="H71" s="38" t="s">
+      <c r="H71" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="I71" s="37" t="s">
+      <c r="I71" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="J71" s="45" t="s">
+      <c r="J71" s="43" t="s">
         <v>139</v>
       </c>
       <c r="K71" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="L71" s="39" t="s">
+      <c r="L71" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="M71" s="45" t="s">
+      <c r="M71" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="N71" s="45" t="s">
+      <c r="N71" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="O71" s="39" t="s">
+      <c r="O71" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="P71" s="39" t="s">
+      <c r="P71" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="Q71" s="39" t="s">
+      <c r="Q71" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="R71" s="39" t="s">
+      <c r="R71" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="S71" s="52" t="s">
+      <c r="S71" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="T71" s="39" t="s">
+      <c r="T71" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="U71" s="39" t="s">
+      <c r="U71" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="V71" s="39" t="s">
+      <c r="V71" s="38" t="s">
         <v>148</v>
       </c>
       <c r="X71" s="32" t="s">
@@ -12546,82 +13263,82 @@
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:22">
-      <c r="A72" s="40" t="s">
+      <c r="A72" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="41" t="s">
+      <c r="C72" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="D72" s="42">
+      <c r="D72" s="40">
         <f>C63</f>
         <v>40422</v>
       </c>
-      <c r="E72" s="43">
+      <c r="E72" s="41">
         <v>0.395833333333333</v>
       </c>
-      <c r="F72" s="44">
+      <c r="F72" s="42">
         <f>D64</f>
         <v>105.31</v>
       </c>
-      <c r="G72" s="42">
+      <c r="G72" s="40">
         <f>J63</f>
         <v>40466</v>
       </c>
-      <c r="H72" s="43">
+      <c r="H72" s="41">
         <v>0.395833333333333</v>
       </c>
-      <c r="I72" s="46">
+      <c r="I72" s="44">
         <v>117.7</v>
       </c>
-      <c r="J72" s="47" t="s">
+      <c r="J72" s="45" t="s">
         <v>94</v>
       </c>
       <c r="K72">
         <v>577</v>
       </c>
-      <c r="L72" s="48">
+      <c r="L72" s="46">
         <f>F65</f>
         <v>10421.5</v>
       </c>
-      <c r="M72" s="49">
+      <c r="M72" s="47">
         <v>0.02</v>
       </c>
-      <c r="N72" s="50">
+      <c r="N72" s="48">
         <f>M72*L72</f>
         <v>208.43</v>
       </c>
-      <c r="O72" s="51">
+      <c r="O72" s="49">
         <f>K72/L72</f>
         <v>0.0553663100321451</v>
       </c>
-      <c r="P72" s="44">
+      <c r="P72" s="42">
         <f>D64-D63</f>
         <v>104.215</v>
       </c>
-      <c r="Q72" s="44">
+      <c r="Q72" s="42">
         <f>H63+D63</f>
         <v>112.095</v>
       </c>
-      <c r="R72" s="44" t="str">
+      <c r="R72" s="42" t="str">
         <f>IF(OR(I72&gt;Q72,I72&lt;P72),"loss","win")</f>
         <v>loss</v>
       </c>
-      <c r="S72" s="53">
+      <c r="S72" s="19">
         <f>K72</f>
         <v>577</v>
       </c>
-      <c r="T72" s="44" t="str">
+      <c r="T72" s="42" t="str">
         <f>IF(V72&lt;0,"loss","win")</f>
         <v>loss</v>
       </c>
-      <c r="U72" s="44">
+      <c r="U72" s="42">
         <f>(I72-F72)*100</f>
         <v>1239</v>
       </c>
-      <c r="V72" s="44">
+      <c r="V72" s="42">
         <f>S72-U72</f>
         <v>-662</v>
       </c>
@@ -12644,7 +13361,7 @@
       <c r="S75" t="s">
         <v>62</v>
       </c>
-      <c r="T75" s="54">
+      <c r="T75" s="51">
         <f>6/12</f>
         <v>0.5</v>
       </c>
@@ -12661,7 +13378,7 @@
       <c r="S76" t="s">
         <v>61</v>
       </c>
-      <c r="T76" s="54">
+      <c r="T76" s="51">
         <f>6/12</f>
         <v>0.5</v>
       </c>
@@ -12685,7 +13402,7 @@
       <c r="S77" t="s">
         <v>62</v>
       </c>
-      <c r="T77" s="54">
+      <c r="T77" s="51">
         <f>11/12</f>
         <v>0.916666666666667</v>
       </c>
@@ -12702,7 +13419,7 @@
       <c r="S78" t="s">
         <v>61</v>
       </c>
-      <c r="T78" s="54">
+      <c r="T78" s="51">
         <f>1/12</f>
         <v>0.0833333333333333</v>
       </c>
@@ -12730,8 +13447,8 @@
   <sheetPr/>
   <dimension ref="A1:S339"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:S54"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16573,614 +17290,609 @@
   <sheetPr/>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="16" customWidth="1"/>
-    <col min="2" max="3" width="9" style="16"/>
-    <col min="4" max="4" width="10.125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="8" style="16" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="16" customWidth="1"/>
-    <col min="8" max="9" width="11" style="16" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9" style="16"/>
-    <col min="13" max="13" width="13.125" style="16" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="16" customWidth="1"/>
-    <col min="15" max="15" width="13" style="16" customWidth="1"/>
-    <col min="16" max="16" width="14.75" style="16" customWidth="1"/>
-    <col min="17" max="17" width="12.375" style="16" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="14.375" style="17" customWidth="1"/>
+    <col min="2" max="3" width="9" style="17"/>
+    <col min="4" max="4" width="10.125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="8" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="17" customWidth="1"/>
+    <col min="8" max="9" width="11" style="17" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="9" style="17"/>
+    <col min="13" max="13" width="13.125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13" style="17" customWidth="1"/>
+    <col min="16" max="16" width="14.75" style="17" customWidth="1"/>
+    <col min="17" max="17" width="12.375" style="17" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="18" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="4:18">
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <v>123.93</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="19">
         <v>129</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="19">
         <v>0.92</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="20">
         <v>32</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="21">
         <v>40897</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="22">
         <f>H3+G3</f>
         <v>40929</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="23">
         <v>131.54</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="24">
         <f>D3-F3</f>
         <v>123.01</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="24">
         <f>E3+F3</f>
         <v>129.92</v>
       </c>
-      <c r="M3" s="23" t="str">
+      <c r="M3" s="24" t="str">
         <f t="shared" ref="M3:M11" si="0">IF(OR(J3&gt;L3,J3&lt;K3),"loss","win")</f>
         <v>loss</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="25">
         <f>(IF(J3&lt;E3,J3,E3)-D3+F3)*100</f>
         <v>598.999999999999</v>
       </c>
-      <c r="O3" s="23" t="str">
+      <c r="O3" s="24" t="str">
         <f>IF(Q3&lt;0,"loss","win")</f>
         <v>loss</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3" s="26">
         <f>(J3-D3)*100</f>
         <v>760.999999999999</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="26">
         <f t="shared" ref="Q3:Q11" si="1">N3-P3</f>
         <v>-161.999999999999</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="19">
         <v>131.54</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="19">
         <v>135</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="19">
         <v>0.665</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="20">
         <v>28</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="21">
         <v>40564</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="22">
         <f t="shared" ref="I4:I11" si="2">H4+G4</f>
         <v>40592</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="23">
         <v>136.41</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="24">
         <f t="shared" ref="K4:K11" si="3">D4-F4</f>
         <v>130.875</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="24">
         <f t="shared" ref="L4:L11" si="4">E4+F4</f>
         <v>135.665</v>
       </c>
-      <c r="M4" s="26" t="str">
+      <c r="M4" s="24" t="str">
         <f t="shared" si="0"/>
         <v>loss</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="25">
         <f t="shared" ref="N4:N11" si="5">(IF(J4&lt;E4,J4,E4)-D4+F4)*100</f>
         <v>412.500000000001</v>
       </c>
-      <c r="O4" s="23" t="str">
+      <c r="O4" s="24" t="str">
         <f t="shared" ref="O3:O11" si="6">IF(Q4&lt;0,"loss","win")</f>
         <v>loss</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="26">
         <f t="shared" ref="P4:P11" si="7">(J4-D4)*100</f>
         <v>487</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="26">
         <f t="shared" si="1"/>
         <v>-74.4999999999997</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="19">
         <v>136.41</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="19">
         <v>140</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="19">
         <v>0.61</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="20">
         <v>23</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="21">
         <v>40957</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="22">
         <f t="shared" si="2"/>
         <v>40980</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="23">
         <v>137.58</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="24">
         <f t="shared" si="3"/>
         <v>135.8</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="24">
         <f t="shared" si="4"/>
         <v>140.61</v>
       </c>
-      <c r="M5" s="26" t="str">
+      <c r="M5" s="24" t="str">
         <f t="shared" si="0"/>
         <v>win</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="25">
         <f t="shared" si="5"/>
         <v>178.000000000002</v>
       </c>
-      <c r="O5" s="23" t="str">
+      <c r="O5" s="24" t="str">
         <f t="shared" si="6"/>
         <v>win</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="26">
         <f t="shared" si="7"/>
         <v>117.000000000002</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="26">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="19">
         <v>140.85</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="19">
         <v>144</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="19">
         <v>0.92</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="20">
         <v>33</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="21">
         <v>40987</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="22">
         <f t="shared" si="2"/>
         <v>41020</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="23">
         <v>137.95</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="24">
         <f t="shared" si="3"/>
         <v>139.93</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="24">
         <f t="shared" si="4"/>
         <v>144.92</v>
       </c>
-      <c r="M6" s="26" t="str">
+      <c r="M6" s="24" t="str">
         <f t="shared" si="0"/>
         <v>loss</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="25">
         <f t="shared" si="5"/>
         <v>-198.000000000001</v>
       </c>
-      <c r="O6" s="23" t="str">
+      <c r="O6" s="24" t="str">
         <f t="shared" si="6"/>
         <v>win</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="26">
         <f t="shared" si="7"/>
         <v>-290.000000000001</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="26">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="R6" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="19">
         <v>140.74</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="19">
         <v>145</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="19">
         <v>0.885</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="20">
         <v>45</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="21">
         <v>41030</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="22">
         <f t="shared" si="2"/>
         <v>41075</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="23">
         <v>134.14</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="24">
         <f t="shared" si="3"/>
         <v>139.855</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="24">
         <f t="shared" si="4"/>
         <v>145.885</v>
       </c>
-      <c r="M7" s="26" t="str">
+      <c r="M7" s="24" t="str">
         <f t="shared" si="0"/>
         <v>loss</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="25">
         <f t="shared" si="5"/>
         <v>-571.500000000002</v>
       </c>
-      <c r="O7" s="23" t="str">
+      <c r="O7" s="24" t="str">
         <f t="shared" si="6"/>
         <v>win</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="26">
         <f t="shared" si="7"/>
         <v>-660.000000000002</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="26">
         <f t="shared" si="1"/>
         <v>88.5</v>
       </c>
-      <c r="R7" s="23" t="s">
+      <c r="R7" s="24" t="s">
         <v>94</v>
       </c>
       <c r="U7" s="29"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="19">
         <v>132.44</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="19">
         <v>137</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="19">
         <v>0.695</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="20">
         <v>30</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="21">
         <v>41081</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="22">
         <f t="shared" si="2"/>
         <v>41111</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="23">
         <v>136.47</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="24">
         <f t="shared" si="3"/>
         <v>131.745</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="24">
         <f t="shared" si="4"/>
         <v>137.695</v>
       </c>
-      <c r="M8" s="26" t="str">
+      <c r="M8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>win</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="25">
         <f t="shared" si="5"/>
         <v>472.5</v>
       </c>
-      <c r="O8" s="23" t="str">
+      <c r="O8" s="24" t="str">
         <f t="shared" si="6"/>
         <v>win</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="26">
         <f t="shared" si="7"/>
         <v>403</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="26">
         <f t="shared" si="1"/>
         <v>69.5</v>
       </c>
-      <c r="R8" s="23" t="s">
+      <c r="R8" s="24" t="s">
         <v>94</v>
       </c>
       <c r="U8" s="29"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="19">
         <v>140.32</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="19">
         <v>145</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="19">
         <v>0.84</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="20">
         <v>36</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="21">
         <v>41128</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="22">
         <f t="shared" si="2"/>
         <v>41164</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="23">
         <v>144.39</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="24">
         <f t="shared" si="3"/>
         <v>139.48</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="24">
         <f t="shared" si="4"/>
         <v>145.84</v>
       </c>
-      <c r="M9" s="26" t="str">
+      <c r="M9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>win</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="25">
         <f t="shared" si="5"/>
         <v>490.999999999999</v>
       </c>
-      <c r="O9" s="23" t="str">
+      <c r="O9" s="24" t="str">
         <f t="shared" si="6"/>
         <v>win</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="26">
         <f t="shared" si="7"/>
         <v>406.999999999999</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="26">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="R9" s="24" t="s">
         <v>94</v>
       </c>
       <c r="U9" s="29"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="19">
         <v>145.645</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="19">
         <v>149</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="19">
         <v>0.435</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="20">
         <v>26</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="21">
         <v>41176</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="22">
         <f t="shared" si="2"/>
         <v>41202</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="23">
         <v>145.82</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="24">
         <f t="shared" si="3"/>
         <v>145.21</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="24">
         <f t="shared" si="4"/>
         <v>149.435</v>
       </c>
-      <c r="M10" s="26" t="str">
+      <c r="M10" s="24" t="str">
         <f t="shared" si="0"/>
         <v>win</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="25">
         <f t="shared" si="5"/>
         <v>60.9999999999983</v>
       </c>
-      <c r="O10" s="23" t="str">
+      <c r="O10" s="24" t="str">
         <f t="shared" si="6"/>
         <v>win</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="26">
         <f t="shared" si="7"/>
         <v>17.4999999999983</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="Q10" s="26">
         <f t="shared" si="1"/>
         <v>43.5</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" s="24" t="s">
         <v>94</v>
       </c>
       <c r="U10" s="29" t="s">
@@ -17188,117 +17900,117 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="19">
         <v>142.96</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="19">
         <v>148</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="19">
         <v>0.9</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="20">
         <v>36</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="21">
         <v>41219</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="22">
         <f t="shared" si="2"/>
         <v>41255</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="23">
         <v>143.51</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="24">
         <f t="shared" si="3"/>
         <v>142.06</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="24">
         <f t="shared" si="4"/>
         <v>148.9</v>
       </c>
-      <c r="M11" s="26" t="str">
+      <c r="M11" s="24" t="str">
         <f t="shared" si="0"/>
         <v>win</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="25">
         <f t="shared" si="5"/>
         <v>144.999999999998</v>
       </c>
-      <c r="O11" s="23" t="str">
+      <c r="O11" s="24" t="str">
         <f t="shared" si="6"/>
         <v>win</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="26">
         <f t="shared" si="7"/>
         <v>54.9999999999983</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="Q11" s="26">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="R11" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="19">
         <v>123.93</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="19">
         <v>129</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>0.92</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="20">
         <v>32</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="21">
         <v>40897</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="22">
         <f>H18+G18</f>
         <v>40929</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="23">
         <v>131.54</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="24">
         <f>D18-F18</f>
         <v>123.01</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="24">
         <f>E18+F18</f>
         <v>129.92</v>
       </c>
-      <c r="M18" s="23" t="str">
+      <c r="M18" s="24" t="str">
         <f>IF(OR(J18&gt;L18,J18&lt;K18),"loss","win")</f>
         <v>loss</v>
       </c>
       <c r="N18" s="27">
         <v>599</v>
       </c>
-      <c r="O18" s="16" t="str">
+      <c r="O18" s="17" t="str">
         <f>IF(Q18&lt;0,"loss","win")</f>
         <v>loss</v>
       </c>
@@ -17310,7 +18022,7 @@
         <f>N18-P18</f>
         <v>-161.999999999999</v>
       </c>
-      <c r="R18" s="16" t="s">
+      <c r="R18" s="17" t="s">
         <v>94</v>
       </c>
     </row>
@@ -17349,80 +18061,80 @@
     <row r="28" spans="8:15">
       <c r="H28"/>
       <c r="I28"/>
-      <c r="N28" s="16">
+      <c r="N28" s="17">
         <v>598.999999999999</v>
       </c>
-      <c r="O28" s="16">
+      <c r="O28" s="17">
         <v>760.999999999999</v>
       </c>
     </row>
     <row r="29" spans="8:15">
       <c r="H29"/>
       <c r="I29"/>
-      <c r="N29" s="16">
+      <c r="N29" s="17">
         <v>412.5</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O29" s="17">
         <v>487</v>
       </c>
     </row>
     <row r="30" spans="8:15">
       <c r="H30"/>
       <c r="I30"/>
-      <c r="N30" s="16">
+      <c r="N30" s="17">
         <v>171</v>
       </c>
-      <c r="O30" s="16">
+      <c r="O30" s="17">
         <v>117.000000000002</v>
       </c>
     </row>
     <row r="31" spans="8:15">
       <c r="H31"/>
       <c r="I31"/>
-      <c r="N31" s="16">
+      <c r="N31" s="17">
         <v>-214.5</v>
       </c>
-      <c r="O31" s="16">
+      <c r="O31" s="17">
         <v>-290.000000000001</v>
       </c>
     </row>
     <row r="32" spans="14:15">
-      <c r="N32" s="16">
+      <c r="N32" s="17">
         <v>-572</v>
       </c>
-      <c r="O32" s="16">
+      <c r="O32" s="17">
         <v>-660.000000000002</v>
       </c>
     </row>
     <row r="33" spans="14:15">
-      <c r="N33" s="16">
+      <c r="N33" s="17">
         <v>472.5</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33" s="17">
         <v>403</v>
       </c>
     </row>
     <row r="34" spans="14:15">
-      <c r="N34" s="16">
+      <c r="N34" s="17">
         <v>397</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="17">
         <v>406.999999999999</v>
       </c>
     </row>
     <row r="35" spans="14:15">
-      <c r="N35" s="16">
+      <c r="N35" s="17">
         <v>61</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O35" s="17">
         <v>17.4999999999983</v>
       </c>
     </row>
     <row r="36" spans="14:15">
-      <c r="N36" s="16">
+      <c r="N36" s="17">
         <v>138</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O36" s="17">
         <v>54.9999999999983</v>
       </c>
     </row>
@@ -17453,10 +18165,200 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" ht="42.75" spans="1:8">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" s="6">
+        <v>40546.3958333333</v>
+      </c>
+      <c r="G3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4">
+        <v>-100</v>
+      </c>
+      <c r="E4">
+        <v>-100</v>
+      </c>
+      <c r="F4" s="6">
+        <v>40546.3958333333</v>
+      </c>
+      <c r="G4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5">
+        <v>-100</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>40592.3958333333</v>
+      </c>
+      <c r="G5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>40592.3958333333</v>
+      </c>
+      <c r="G6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L156" sqref="L156"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -17495,42 +18397,42 @@
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="4" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="4" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="4" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="4" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="4" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="4" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="4" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="15" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -17575,10 +18477,10 @@
         <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="I18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="J18" t="s">
         <v>102</v>
@@ -17643,7 +18545,7 @@
         <v>45.6323</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="J19" s="12">
         <v>0.395833333333333</v>
@@ -17714,7 +18616,7 @@
         <v>40.5565</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="J20" s="12">
         <v>0.395833333333333</v>
@@ -17785,7 +18687,7 @@
         <v>49.6974</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="J21" s="12">
         <v>0.395833333333333</v>
@@ -17856,7 +18758,7 @@
         <v>35.6417</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="J22" s="12">
         <v>0.395833333333333</v>
@@ -17927,7 +18829,7 @@
         <v>50.3814</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="J23" s="12">
         <v>0.395833333333333</v>
@@ -17998,7 +18900,7 @@
         <v>42.4969</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="J24" s="12">
         <v>0.395833333333333</v>
@@ -18069,7 +18971,7 @@
         <v>44.8684</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="J25" s="12">
         <v>0.395833333333333</v>
@@ -18140,7 +19042,7 @@
         <v>30.0694</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="J26" s="12">
         <v>0.395833333333333</v>
@@ -18211,7 +19113,7 @@
         <v>50.2389</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="J27" s="12">
         <v>0.395833333333333</v>
@@ -18258,7 +19160,7 @@
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -18268,13 +19170,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="L156" sqref="L156"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -18298,21 +19200,21 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="4" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -18349,17 +19251,17 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -18413,13 +19315,13 @@
         <v>101</v>
       </c>
       <c r="M23" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="N23" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="P23" t="s">
         <v>102</v>
@@ -18487,7 +19389,7 @@
         <v>53.8716</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="O24" s="11">
         <v>0.2</v>
@@ -18564,7 +19466,7 @@
         <v>48.5227</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="O25" s="11">
         <v>0.2</v>
@@ -18606,7 +19508,7 @@
       </c>
       <c r="Z25" s="8">
         <f t="shared" si="5"/>
-        <v>19.9999999999986</v>
+        <v>19.999999999999</v>
       </c>
       <c r="AA25" t="s">
         <v>94</v>
@@ -18641,7 +19543,7 @@
         <v>59.6707</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="O26" s="11">
         <v>0.4</v>
@@ -18718,7 +19620,7 @@
         <v>49.2788</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="O27" s="11">
         <v>0.2</v>
@@ -18795,7 +19697,7 @@
         <v>42.49</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="O28" s="11">
         <v>0.2</v>
@@ -18837,7 +19739,7 @@
       </c>
       <c r="Z28" s="8">
         <f t="shared" si="5"/>
-        <v>69.4999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="AA28" t="s">
         <v>94</v>
@@ -18872,7 +19774,7 @@
         <v>44.8684</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="O29" s="11">
         <v>0.2</v>
@@ -18914,7 +19816,7 @@
       </c>
       <c r="Z29" s="8">
         <f t="shared" si="5"/>
-        <v>8.50000000000068</v>
+        <v>8.50000000000102</v>
       </c>
       <c r="AA29" t="s">
         <v>94</v>
@@ -18946,7 +19848,7 @@
         <v>49.3</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="O30" s="11">
         <v>0.2</v>
@@ -18988,7 +19890,7 @@
       </c>
       <c r="Z30" s="8">
         <f t="shared" si="5"/>
-        <v>52.0000000000013</v>
+        <v>52.000000000001</v>
       </c>
       <c r="AA30" t="s">
         <v>94</v>
@@ -19020,7 +19922,7 @@
         <v>50.2389</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="O31" s="11">
         <v>0.2</v>
@@ -19096,685 +19998,6 @@
     <row r="37" spans="2:2">
       <c r="B37" s="6">
         <v>41264</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Y39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="L156" sqref="L156"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="4" max="4" width="9.70833333333333" customWidth="1"/>
-    <col min="5" max="6" width="10.5666666666667" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="11" max="11" width="16.2833333333333" customWidth="1"/>
-    <col min="15" max="15" width="10.425" customWidth="1"/>
-    <col min="17" max="19" width="9.28333333333333" customWidth="1"/>
-    <col min="21" max="21" width="10.2833333333333" customWidth="1"/>
-    <col min="23" max="24" width="10.425" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="25.5" spans="1:3">
-      <c r="A1" s="1">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="11:11">
-      <c r="K10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="11:11">
-      <c r="K11" s="6">
-        <v>40932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>157</v>
-      </c>
-      <c r="K12" s="6">
-        <v>41023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>205</v>
-      </c>
-      <c r="K13" s="6">
-        <v>41114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>158</v>
-      </c>
-      <c r="K14" s="6">
-        <v>41207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K15" s="6">
-        <v>41297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15">
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" t="s">
-        <v>83</v>
-      </c>
-      <c r="O22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25">
-      <c r="C23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" t="s">
-        <v>194</v>
-      </c>
-      <c r="K23" t="s">
-        <v>195</v>
-      </c>
-      <c r="L23" t="s">
-        <v>204</v>
-      </c>
-      <c r="M23" t="s">
-        <v>216</v>
-      </c>
-      <c r="N23" t="s">
-        <v>102</v>
-      </c>
-      <c r="O23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P23" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>107</v>
-      </c>
-      <c r="R23" t="s">
-        <v>88</v>
-      </c>
-      <c r="S23" t="s">
-        <v>108</v>
-      </c>
-      <c r="T23" t="s">
-        <v>57</v>
-      </c>
-      <c r="U23" t="s">
-        <v>87</v>
-      </c>
-      <c r="V23" t="s">
-        <v>109</v>
-      </c>
-      <c r="W23" t="s">
-        <v>162</v>
-      </c>
-      <c r="X23" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25">
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="5">
-        <v>545.17</v>
-      </c>
-      <c r="G24" s="5">
-        <v>590</v>
-      </c>
-      <c r="H24" s="5">
-        <v>5.575</v>
-      </c>
-      <c r="I24" s="10">
-        <v>40977</v>
-      </c>
-      <c r="J24" s="11">
-        <v>47.2096</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="L24" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="M24" s="11">
-        <v>26.91</v>
-      </c>
-      <c r="N24" s="12">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="O24" s="13">
-        <v>41020</v>
-      </c>
-      <c r="P24" s="12">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="Q24" s="7">
-        <f>F24-H24</f>
-        <v>539.595</v>
-      </c>
-      <c r="R24" s="14">
-        <v>572.98</v>
-      </c>
-      <c r="S24" s="7">
-        <f>G24+H24</f>
-        <v>595.575</v>
-      </c>
-      <c r="T24" s="7" t="str">
-        <f>IF(OR(R24&gt;S24,R24&lt;Q24),"loss","win")</f>
-        <v>win</v>
-      </c>
-      <c r="U24" s="14">
-        <v>3338.5</v>
-      </c>
-      <c r="V24" s="7" t="str">
-        <f>IF(X24&lt;0,"loss","win")</f>
-        <v>win</v>
-      </c>
-      <c r="W24" s="7">
-        <f>(R24-F24)*100</f>
-        <v>2781.00000000001</v>
-      </c>
-      <c r="X24" s="7">
-        <f>U24-W24</f>
-        <v>557.499999999994</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25">
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="5">
-        <v>582.13</v>
-      </c>
-      <c r="G25" s="5">
-        <v>615</v>
-      </c>
-      <c r="H25" s="5">
-        <v>6.85</v>
-      </c>
-      <c r="I25" s="10">
-        <v>41030</v>
-      </c>
-      <c r="J25" s="11">
-        <v>54.0074</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="L25" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="M25" s="11">
-        <v>29.21</v>
-      </c>
-      <c r="N25" s="12">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="O25" s="13">
-        <v>41076</v>
-      </c>
-      <c r="P25" s="12">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="Q25" s="7">
-        <f>F25-H25</f>
-        <v>575.28</v>
-      </c>
-      <c r="R25" s="14">
-        <v>574.13</v>
-      </c>
-      <c r="S25" s="7">
-        <f>G25+H25</f>
-        <v>621.85</v>
-      </c>
-      <c r="T25" s="7" t="str">
-        <f>IF(OR(R25&gt;S25,R25&lt;Q25),"loss","win")</f>
-        <v>loss</v>
-      </c>
-      <c r="U25" s="14">
-        <v>-115</v>
-      </c>
-      <c r="V25" s="7" t="str">
-        <f>IF(X25&lt;0,"loss","win")</f>
-        <v>win</v>
-      </c>
-      <c r="W25" s="7">
-        <f>(R25-F25)*100</f>
-        <v>-800</v>
-      </c>
-      <c r="X25" s="7">
-        <f>U25-W25</f>
-        <v>685</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="3:25">
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="5">
-        <v>599.41</v>
-      </c>
-      <c r="G26" s="5">
-        <v>655</v>
-      </c>
-      <c r="H26" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="I26" s="10">
-        <v>41093</v>
-      </c>
-      <c r="J26" s="11">
-        <v>49.3928</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="L26" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="M26" s="11">
-        <v>27.91</v>
-      </c>
-      <c r="N26" s="12">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="O26" s="13">
-        <v>41113</v>
-      </c>
-      <c r="P26" s="12">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="Q26" s="7">
-        <f>F26-H26</f>
-        <v>593.31</v>
-      </c>
-      <c r="R26" s="14">
-        <v>603.83</v>
-      </c>
-      <c r="S26" s="7">
-        <f>G26+H26</f>
-        <v>661.1</v>
-      </c>
-      <c r="T26" s="7" t="str">
-        <f>IF(OR(R26&gt;S26,R26&lt;Q26),"loss","win")</f>
-        <v>win</v>
-      </c>
-      <c r="U26" s="14">
-        <v>592</v>
-      </c>
-      <c r="V26" s="7" t="str">
-        <f>IF(X26&lt;0,"loss","win")</f>
-        <v>win</v>
-      </c>
-      <c r="W26" s="7">
-        <f>(R26-F26)*100</f>
-        <v>442.000000000007</v>
-      </c>
-      <c r="X26" s="7">
-        <f>U26-W26</f>
-        <v>149.999999999993</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25">
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="5">
-        <v>670.23</v>
-      </c>
-      <c r="G27" s="5">
-        <v>730</v>
-      </c>
-      <c r="H27" s="5">
-        <v>6.6</v>
-      </c>
-      <c r="I27" s="10">
-        <v>41157</v>
-      </c>
-      <c r="J27" s="11">
-        <v>46.2631</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="M27" s="11">
-        <v>27.14</v>
-      </c>
-      <c r="N27" s="12">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="O27" s="13">
-        <v>41113</v>
-      </c>
-      <c r="P27" s="12">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="Q27" s="7">
-        <f>F27-H27</f>
-        <v>663.63</v>
-      </c>
-      <c r="R27" s="14">
-        <v>632.64</v>
-      </c>
-      <c r="S27" s="7">
-        <f>G27+H27</f>
-        <v>736.6</v>
-      </c>
-      <c r="T27" s="7" t="str">
-        <f>IF(OR(R27&gt;S27,R27&lt;Q27),"loss","win")</f>
-        <v>loss</v>
-      </c>
-      <c r="U27" s="14">
-        <v>-3099</v>
-      </c>
-      <c r="V27" s="7" t="str">
-        <f>IF(X27&lt;0,"loss","win")</f>
-        <v>win</v>
-      </c>
-      <c r="W27" s="7">
-        <f>(R27-F27)*100</f>
-        <v>-3759</v>
-      </c>
-      <c r="X27" s="7">
-        <f>U27-W27</f>
-        <v>660.000000000003</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25">
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="5">
-        <v>547.2445</v>
-      </c>
-      <c r="G28" s="5">
-        <v>615</v>
-      </c>
-      <c r="H28" s="5">
-        <v>6.725</v>
-      </c>
-      <c r="I28" s="10">
-        <v>41249</v>
-      </c>
-      <c r="J28" s="11">
-        <v>40.396</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="L28" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="M28" s="11">
-        <v>36.1</v>
-      </c>
-      <c r="N28" s="12">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="O28" s="13">
-        <v>41293</v>
-      </c>
-      <c r="P28" s="12">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="Q28" s="7">
-        <f>F28-H28</f>
-        <v>540.5195</v>
-      </c>
-      <c r="R28" s="14">
-        <v>500</v>
-      </c>
-      <c r="S28" s="7">
-        <f>G28+H28</f>
-        <v>621.725</v>
-      </c>
-      <c r="T28" s="7" t="str">
-        <f>IF(OR(R28&gt;S28,R28&lt;Q28),"loss","win")</f>
-        <v>loss</v>
-      </c>
-      <c r="U28" s="14">
-        <v>-4051.95</v>
-      </c>
-      <c r="V28" s="7" t="str">
-        <f>IF(X28&lt;0,"loss","win")</f>
-        <v>win</v>
-      </c>
-      <c r="W28" s="7">
-        <f>(R28-F28)*100</f>
-        <v>-4724.45</v>
-      </c>
-      <c r="X28" s="7">
-        <f>U28-W28</f>
-        <v>672.500000000002</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="6">
-        <v>40909</v>
-      </c>
-      <c r="E33" s="7">
-        <v>405</v>
-      </c>
-      <c r="F33" s="8">
-        <f>100*E33</f>
-        <v>40500</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5">
-      <c r="D34" s="6">
-        <v>41293</v>
-      </c>
-      <c r="E34" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="D35" t="s">
-        <v>218</v>
-      </c>
-      <c r="E35" s="7">
-        <f>100*(E34-E33)</f>
-        <v>9500</v>
-      </c>
-      <c r="F35" s="9">
-        <f>E35/F33</f>
-        <v>0.234567901234568</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6">
-      <c r="D36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="8">
-        <f>E35+SUM(X24:X28)</f>
-        <v>12225</v>
-      </c>
-      <c r="F36" s="9">
-        <f>E36/F33</f>
-        <v>0.301851851851852</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6">
-      <c r="E39" t="s">
-        <v>219</v>
-      </c>
-      <c r="F39" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
